--- a/translations/parent_text_crisis_palestine/excel files/Palestine strings for translation.xlsx
+++ b/translations/parent_text_crisis_palestine/excel files/Palestine strings for translation.xlsx
@@ -3084,9 +3084,6 @@
     <t>Please select your language:</t>
   </si>
   <si>
-    <t>يُرجى اختيار لغتك:</t>
-  </si>
-  <si>
     <t>من فضلك ادخل اللغة</t>
   </si>
   <si>
@@ -3234,169 +3231,169 @@
     <t>عشان تبدأ، فيك تشوف هالفيديو لتتعرّف على نصائح للوالدين.</t>
   </si>
   <si>
+    <t>اللغة العربية</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Text / Images</t>
+  </si>
+  <si>
+    <t>نص/ صور</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>ملف صوتي</t>
+  </si>
+  <si>
+    <t>Under 16 years old</t>
+  </si>
+  <si>
+    <t>أقل من 16 سنة</t>
+  </si>
+  <si>
+    <t>16-19 years old</t>
+  </si>
+  <si>
+    <t>من 16 إلى 19 سنة</t>
+  </si>
+  <si>
+    <t>20-35 years old</t>
+  </si>
+  <si>
+    <t>من 20 إلى 35 سنة</t>
+  </si>
+  <si>
+    <t>Over 35 years old</t>
+  </si>
+  <si>
+    <t>أكتر من 35 سنة</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>امرأة</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>رجل</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>لا يوجد</t>
+  </si>
+  <si>
+    <t>One to three</t>
+  </si>
+  <si>
+    <t>من واحد لثلاثة</t>
+  </si>
+  <si>
+    <t>More than four</t>
+  </si>
+  <si>
+    <t>أكتر من أربعة</t>
+  </si>
+  <si>
+    <t>I want the tips</t>
+  </si>
+  <si>
+    <t>أريد النصائح</t>
+  </si>
+  <si>
+    <t>I do not want the tips</t>
+  </si>
+  <si>
+    <t>لا أريد النصائح</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>الأردن</t>
+  </si>
+  <si>
+    <t>Gaza</t>
+  </si>
+  <si>
+    <t>غزة</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>الضفة الغربية</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>لبنان</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>مصر</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>سوريا</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>اليمن</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>أخرى</t>
+  </si>
+  <si>
+    <t>Living in a camp or shelter</t>
+  </si>
+  <si>
+    <t>عايش في مُخيّم أو مأوى</t>
+  </si>
+  <si>
+    <t>Living in a house or apartment</t>
+  </si>
+  <si>
+    <t>عايش في بيت أو شقة</t>
+  </si>
+  <si>
+    <t>Moving around often</t>
+  </si>
+  <si>
+    <t>عم بغيّر مكاني كتير</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>بفضّل ما أجاوب</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
     <t>اللغة الإنجليزية</t>
-  </si>
-  <si>
-    <t>اللغة العربية</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Text / Images</t>
-  </si>
-  <si>
-    <t>نص/ صور</t>
-  </si>
-  <si>
-    <t>Audio</t>
-  </si>
-  <si>
-    <t>ملف صوتي</t>
-  </si>
-  <si>
-    <t>Under 16 years old</t>
-  </si>
-  <si>
-    <t>أقل من 16 سنة</t>
-  </si>
-  <si>
-    <t>16-19 years old</t>
-  </si>
-  <si>
-    <t>من 16 إلى 19 سنة</t>
-  </si>
-  <si>
-    <t>20-35 years old</t>
-  </si>
-  <si>
-    <t>من 20 إلى 35 سنة</t>
-  </si>
-  <si>
-    <t>Over 35 years old</t>
-  </si>
-  <si>
-    <t>أكتر من 35 سنة</t>
-  </si>
-  <si>
-    <t>Woman</t>
-  </si>
-  <si>
-    <t>امرأة</t>
-  </si>
-  <si>
-    <t>Man</t>
-  </si>
-  <si>
-    <t>رجل</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>لا يوجد</t>
-  </si>
-  <si>
-    <t>One to three</t>
-  </si>
-  <si>
-    <t>من واحد لثلاثة</t>
-  </si>
-  <si>
-    <t>More than four</t>
-  </si>
-  <si>
-    <t>أكتر من أربعة</t>
-  </si>
-  <si>
-    <t>I want the tips</t>
-  </si>
-  <si>
-    <t>أريد النصائح</t>
-  </si>
-  <si>
-    <t>I do not want the tips</t>
-  </si>
-  <si>
-    <t>لا أريد النصائح</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>الأردن</t>
-  </si>
-  <si>
-    <t>Gaza</t>
-  </si>
-  <si>
-    <t>غزة</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>الضفة الغربية</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>لبنان</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>مصر</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>سوريا</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>اليمن</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>أخرى</t>
-  </si>
-  <si>
-    <t>Living in a camp or shelter</t>
-  </si>
-  <si>
-    <t>عايش في مُخيّم أو مأوى</t>
-  </si>
-  <si>
-    <t>Living in a house or apartment</t>
-  </si>
-  <si>
-    <t>عايش في بيت أو شقة</t>
-  </si>
-  <si>
-    <t>Moving around often</t>
-  </si>
-  <si>
-    <t>عم بغيّر مكاني كتير</t>
-  </si>
-  <si>
-    <t>Prefer not to say</t>
-  </si>
-  <si>
-    <t>بفضّل ما أجاوب</t>
-  </si>
-  <si>
-    <t>english</t>
   </si>
   <si>
     <t>text / images</t>
@@ -4235,6 +4232,9 @@
   </si>
   <si>
     <t>في كمان نصائح في@(fields.c_n_mod - fields.c_n_mod_compl)</t>
+  </si>
+  <si>
+    <t>يُرجى اختيار لغتك:</t>
   </si>
   <si>
     <t>✅ معلوماتك المجهولة ممكن يتم مشاركتها مع اللي بيشتغلوا لمساعدة عائلات زي عائلتك لبناء القوة والأمل في الأوقات الصعبة. كل معلوماتك رح تكون خاصة وما رح يقدر حدا يربطها فيك.</t>
@@ -4994,9 +4994,6 @@
     <xf borderId="17" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="18" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -5035,6 +5032,9 @@
     </xf>
     <xf borderId="5" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -19987,8 +19987,8 @@
       <c r="A3" s="21" t="s">
         <v>992</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>993</v>
+      <c r="B3" s="45" t="s">
+        <v>992</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>10</v>
@@ -19999,7 +19999,7 @@
       <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="65"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A3, "" ""))"),4.0)</f>
         <v>4</v>
@@ -20010,11 +20010,11 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="66" t="s">
-        <v>994</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>994</v>
+      <c r="A4" s="65" t="s">
+        <v>993</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>993</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -20039,7 +20039,7 @@
       <c r="A5" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="67" t="s">
         <v>603</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -20051,7 +20051,7 @@
       <c r="E5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="65"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A5, "" ""))"),7.0)</f>
         <v>7</v>
@@ -20063,10 +20063,10 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>995</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>996</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -20089,11 +20089,11 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="21" t="s">
+        <v>996</v>
+      </c>
+      <c r="B7" s="67" t="s">
         <v>997</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>998</v>
-      </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
@@ -20103,7 +20103,7 @@
       <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="65"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A7, "" ""))"),29.0)</f>
         <v>29</v>
@@ -20115,10 +20115,10 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="17" t="s">
+        <v>998</v>
+      </c>
+      <c r="B8" s="62" t="s">
         <v>999</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>1000</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>10</v>
@@ -20141,11 +20141,11 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="21" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="67" t="s">
         <v>1001</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>1002</v>
-      </c>
       <c r="C9" s="12" t="s">
         <v>10</v>
       </c>
@@ -20155,7 +20155,7 @@
       <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A9, "" ""))"),6.0)</f>
         <v>6</v>
@@ -20167,10 +20167,10 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B10" s="62" t="s">
         <v>1003</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>1004</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
@@ -20193,11 +20193,11 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="68" t="s">
         <v>1005</v>
       </c>
-      <c r="B11" s="69" t="s">
-        <v>1006</v>
-      </c>
       <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
@@ -20207,7 +20207,7 @@
       <c r="E11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="65"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A11, "" ""))"),35.0)</f>
         <v>35</v>
@@ -20219,10 +20219,10 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B12" s="66" t="s">
         <v>1007</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>1008</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>10</v>
@@ -20245,11 +20245,11 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="21" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B13" s="67" t="s">
         <v>1009</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>1010</v>
-      </c>
       <c r="C13" s="12" t="s">
         <v>10</v>
       </c>
@@ -20259,7 +20259,7 @@
       <c r="E13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="65"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A13, "" ""))"),8.0)</f>
         <v>8</v>
@@ -20271,10 +20271,10 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="17" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B14" s="66" t="s">
         <v>1011</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>1012</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>10</v>
@@ -20297,11 +20297,11 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="21" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="69" t="s">
         <v>1013</v>
       </c>
-      <c r="B15" s="70" t="s">
-        <v>1014</v>
-      </c>
       <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
@@ -20311,7 +20311,7 @@
       <c r="E15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A15, "" ""))"),36.0)</f>
         <v>36</v>
@@ -20323,10 +20323,10 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="66" t="s">
         <v>1015</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>1016</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -20349,11 +20349,11 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="21" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="69" t="s">
         <v>1017</v>
       </c>
-      <c r="B17" s="70" t="s">
-        <v>1018</v>
-      </c>
       <c r="C17" s="12" t="s">
         <v>10</v>
       </c>
@@ -20363,7 +20363,7 @@
       <c r="E17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A17, "" ""))"),19.0)</f>
         <v>19</v>
@@ -20375,10 +20375,10 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B18" s="62" t="s">
         <v>1019</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>1020</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
@@ -20401,11 +20401,11 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="21" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B19" s="69" t="s">
         <v>1021</v>
       </c>
-      <c r="B19" s="70" t="s">
-        <v>1022</v>
-      </c>
       <c r="C19" s="12" t="s">
         <v>10</v>
       </c>
@@ -20415,7 +20415,7 @@
       <c r="E19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="65"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A19, "" ""))"),17.0)</f>
         <v>17</v>
@@ -20427,10 +20427,10 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B20" s="66" t="s">
         <v>1023</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>1024</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>10</v>
@@ -20453,11 +20453,11 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B21" s="69" t="s">
         <v>1025</v>
       </c>
-      <c r="B21" s="70" t="s">
-        <v>1026</v>
-      </c>
       <c r="C21" s="12" t="s">
         <v>10</v>
       </c>
@@ -20467,7 +20467,7 @@
       <c r="E21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="65"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A21, "" ""))"),6.0)</f>
         <v>6</v>
@@ -20479,10 +20479,10 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B22" s="70" t="s">
         <v>1027</v>
-      </c>
-      <c r="B22" s="71" t="s">
-        <v>1028</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>10</v>
@@ -20505,11 +20505,11 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="21" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B23" s="71" t="s">
         <v>1029</v>
       </c>
-      <c r="B23" s="72" t="s">
-        <v>1030</v>
-      </c>
       <c r="C23" s="12" t="s">
         <v>10</v>
       </c>
@@ -20519,7 +20519,7 @@
       <c r="E23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="65"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A23, "" ""))"),28.0)</f>
         <v>28</v>
@@ -20531,10 +20531,10 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B24" s="62" t="s">
         <v>1031</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>1032</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>10</v>
@@ -20557,11 +20557,11 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="21" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B25" s="69" t="s">
         <v>1033</v>
       </c>
-      <c r="B25" s="70" t="s">
-        <v>1034</v>
-      </c>
       <c r="C25" s="12" t="s">
         <v>10</v>
       </c>
@@ -20571,7 +20571,7 @@
       <c r="E25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="65"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A25, "" ""))"),5.0)</f>
         <v>5</v>
@@ -20583,10 +20583,10 @@
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B26" s="62" t="s">
         <v>1035</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>1036</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>10</v>
@@ -20609,11 +20609,11 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B27" s="67" t="s">
         <v>1037</v>
       </c>
-      <c r="B27" s="68" t="s">
-        <v>1038</v>
-      </c>
       <c r="C27" s="12" t="s">
         <v>10</v>
       </c>
@@ -20623,7 +20623,7 @@
       <c r="E27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="64"/>
       <c r="G27" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A27, "" ""))"),6.0)</f>
         <v>6</v>
@@ -20635,10 +20635,10 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B28" s="62" t="s">
         <v>1039</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>1040</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>10</v>
@@ -20661,11 +20661,11 @@
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="21" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B29" s="69" t="s">
         <v>1041</v>
       </c>
-      <c r="B29" s="70" t="s">
-        <v>1042</v>
-      </c>
       <c r="C29" s="12" t="s">
         <v>10</v>
       </c>
@@ -20675,7 +20675,7 @@
       <c r="E29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="65"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A29, "" ""))"),11.0)</f>
         <v>11</v>
@@ -20689,8 +20689,8 @@
       <c r="A30" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="67" t="s">
-        <v>1043</v>
+      <c r="B30" s="44" t="s">
+        <v>0</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>596</v>
@@ -20712,11 +20712,11 @@
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="72" t="s">
         <v>984</v>
       </c>
-      <c r="B31" s="70" t="s">
-        <v>1044</v>
+      <c r="B31" s="69" t="s">
+        <v>1042</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>596</v>
@@ -20727,7 +20727,7 @@
       <c r="E31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="65"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A31, "" ""))"),2.0)</f>
         <v>2</v>
@@ -20739,9 +20739,9 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="17" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B32" s="67" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B32" s="66" t="s">
         <v>825</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -20765,9 +20765,9 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B33" s="68" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B33" s="67" t="s">
         <v>827</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -20779,7 +20779,7 @@
       <c r="E33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="65"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A33, "" ""))"),1.0)</f>
         <v>1</v>
@@ -20793,7 +20793,7 @@
       <c r="A34" s="17" t="s">
         <v>846</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="66" t="s">
         <v>847</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -20817,10 +20817,10 @@
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>1048</v>
+        <v>1045</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>1046</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>596</v>
@@ -20831,7 +20831,7 @@
       <c r="E35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="65"/>
+      <c r="F35" s="64"/>
       <c r="G35" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A35, "" ""))"),3.0)</f>
         <v>3</v>
@@ -20843,10 +20843,10 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="17" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>1050</v>
+        <v>1047</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>1048</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>596</v>
@@ -20869,10 +20869,10 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B37" s="68" t="s">
-        <v>1052</v>
+        <v>1049</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>1050</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>596</v>
@@ -20883,7 +20883,7 @@
       <c r="E37" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="65"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A37, "" ""))"),4.0)</f>
         <v>4</v>
@@ -20895,10 +20895,10 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>1054</v>
+        <v>1051</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>1052</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>596</v>
@@ -20921,10 +20921,10 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="21" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B39" s="74" t="s">
-        <v>1056</v>
+        <v>1053</v>
+      </c>
+      <c r="B39" s="73" t="s">
+        <v>1054</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>596</v>
@@ -20935,7 +20935,7 @@
       <c r="E39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="65"/>
+      <c r="F39" s="64"/>
       <c r="G39" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A39, "" ""))"),3.0)</f>
         <v>3</v>
@@ -20947,10 +20947,10 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B40" s="75" t="s">
-        <v>1058</v>
+        <v>1055</v>
+      </c>
+      <c r="B40" s="74" t="s">
+        <v>1056</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>596</v>
@@ -20973,10 +20973,10 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B41" s="74" t="s">
-        <v>1060</v>
+        <v>1057</v>
+      </c>
+      <c r="B41" s="73" t="s">
+        <v>1058</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>596</v>
@@ -20987,7 +20987,7 @@
       <c r="E41" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="65"/>
+      <c r="F41" s="64"/>
       <c r="G41" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A41, "" ""))"),1.0)</f>
         <v>1</v>
@@ -20999,10 +20999,10 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B42" s="75" t="s">
-        <v>1062</v>
+        <v>1059</v>
+      </c>
+      <c r="B42" s="74" t="s">
+        <v>1060</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>596</v>
@@ -21025,10 +21025,10 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B43" s="76" t="s">
-        <v>1064</v>
+        <v>1061</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>1062</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>596</v>
@@ -21039,7 +21039,7 @@
       <c r="E43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="65"/>
+      <c r="F43" s="64"/>
       <c r="G43" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A43, "" ""))"),1.0)</f>
         <v>1</v>
@@ -21051,10 +21051,10 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B44" s="75" t="s">
-        <v>1066</v>
+        <v>1063</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>1064</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>596</v>
@@ -21077,10 +21077,10 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B45" s="74" t="s">
-        <v>1068</v>
+        <v>1065</v>
+      </c>
+      <c r="B45" s="73" t="s">
+        <v>1066</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>596</v>
@@ -21091,7 +21091,7 @@
       <c r="E45" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="65"/>
+      <c r="F45" s="64"/>
       <c r="G45" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A45, "" ""))"),3.0)</f>
         <v>3</v>
@@ -21103,10 +21103,10 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B46" s="76" t="s">
-        <v>1070</v>
+        <v>1067</v>
+      </c>
+      <c r="B46" s="75" t="s">
+        <v>1068</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>596</v>
@@ -21129,10 +21129,10 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B47" s="76" t="s">
-        <v>1072</v>
+        <v>1069</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>1070</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>596</v>
@@ -21143,7 +21143,7 @@
       <c r="E47" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="65"/>
+      <c r="F47" s="64"/>
       <c r="G47" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A47, "" ""))"),6.0)</f>
         <v>6</v>
@@ -21155,10 +21155,10 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="17" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B48" s="77" t="s">
-        <v>1074</v>
+        <v>1071</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>1072</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>596</v>
@@ -21181,10 +21181,10 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>1076</v>
+        <v>1073</v>
+      </c>
+      <c r="B49" s="77" t="s">
+        <v>1074</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>596</v>
@@ -21195,7 +21195,7 @@
       <c r="E49" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="65"/>
+      <c r="F49" s="64"/>
       <c r="G49" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A49, "" ""))"),1.0)</f>
         <v>1</v>
@@ -21207,10 +21207,10 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B50" s="78" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>596</v>
@@ -21233,10 +21233,10 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="21" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B51" s="74" t="s">
-        <v>1080</v>
+        <v>1077</v>
+      </c>
+      <c r="B51" s="73" t="s">
+        <v>1078</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>596</v>
@@ -21247,7 +21247,7 @@
       <c r="E51" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="65"/>
+      <c r="F51" s="64"/>
       <c r="G51" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A51, "" ""))"),1.0)</f>
         <v>1</v>
@@ -21259,10 +21259,10 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="17" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B52" s="67" t="s">
-        <v>1082</v>
+        <v>1079</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>1080</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>596</v>
@@ -21285,10 +21285,10 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>1084</v>
+        <v>1081</v>
+      </c>
+      <c r="B53" s="67" t="s">
+        <v>1082</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>596</v>
@@ -21299,7 +21299,7 @@
       <c r="E53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="65"/>
+      <c r="F53" s="64"/>
       <c r="G53" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A53, "" ""))"),1.0)</f>
         <v>1</v>
@@ -21311,10 +21311,10 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B54" s="67" t="s">
-        <v>1086</v>
+        <v>1083</v>
+      </c>
+      <c r="B54" s="66" t="s">
+        <v>1084</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>596</v>
@@ -21337,10 +21337,10 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B55" s="68" t="s">
-        <v>1088</v>
+        <v>1085</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>1086</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>596</v>
@@ -21351,7 +21351,7 @@
       <c r="E55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="65"/>
+      <c r="F55" s="64"/>
       <c r="G55" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A55, "" ""))"),1.0)</f>
         <v>1</v>
@@ -21363,10 +21363,10 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B56" s="67" t="s">
-        <v>1090</v>
+        <v>1087</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>1088</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>596</v>
@@ -21389,10 +21389,10 @@
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="21" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B57" s="74" t="s">
-        <v>1092</v>
+        <v>1089</v>
+      </c>
+      <c r="B57" s="73" t="s">
+        <v>1090</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>596</v>
@@ -21403,7 +21403,7 @@
       <c r="E57" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="65"/>
+      <c r="F57" s="64"/>
       <c r="G57" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A57, "" ""))"),6.0)</f>
         <v>6</v>
@@ -21415,10 +21415,10 @@
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="17" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B58" s="75" t="s">
-        <v>1094</v>
+        <v>1091</v>
+      </c>
+      <c r="B58" s="74" t="s">
+        <v>1092</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>596</v>
@@ -21441,10 +21441,10 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="21" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B59" s="74" t="s">
-        <v>1096</v>
+        <v>1093</v>
+      </c>
+      <c r="B59" s="73" t="s">
+        <v>1094</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>596</v>
@@ -21455,7 +21455,7 @@
       <c r="E59" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="65"/>
+      <c r="F59" s="64"/>
       <c r="G59" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A59, "" ""))"),4.0)</f>
         <v>4</v>
@@ -21469,7 +21469,7 @@
       <c r="A60" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="74" t="s">
         <v>595</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -21493,10 +21493,10 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="21" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B61" s="74" t="s">
-        <v>1043</v>
+        <v>1095</v>
+      </c>
+      <c r="B61" s="73" t="s">
+        <v>1096</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>906</v>
@@ -21507,7 +21507,7 @@
       <c r="E61" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="65"/>
+      <c r="F61" s="64"/>
       <c r="G61" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A61, "" ""))"),1.0)</f>
         <v>1</v>
@@ -21518,11 +21518,11 @@
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="66" t="s">
+      <c r="A62" s="65" t="s">
         <v>984</v>
       </c>
-      <c r="B62" s="67" t="s">
-        <v>1044</v>
+      <c r="B62" s="66" t="s">
+        <v>1042</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>906</v>
@@ -21547,7 +21547,7 @@
       <c r="A63" s="21" t="s">
         <v>937</v>
       </c>
-      <c r="B63" s="68" t="s">
+      <c r="B63" s="67" t="s">
         <v>825</v>
       </c>
       <c r="C63" s="12" t="s">
@@ -21559,7 +21559,7 @@
       <c r="E63" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="65"/>
+      <c r="F63" s="64"/>
       <c r="G63" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A63, "" ""))"),1.0)</f>
         <v>1</v>
@@ -21573,7 +21573,7 @@
       <c r="A64" s="17" t="s">
         <v>939</v>
       </c>
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="66" t="s">
         <v>940</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -21599,7 +21599,7 @@
       <c r="A65" s="21" t="s">
         <v>941</v>
       </c>
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="67" t="s">
         <v>847</v>
       </c>
       <c r="C65" s="12" t="s">
@@ -21611,7 +21611,7 @@
       <c r="E65" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="65"/>
+      <c r="F65" s="64"/>
       <c r="G65" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A65, "" ""))"),1.0)</f>
         <v>1</v>
@@ -21625,7 +21625,7 @@
       <c r="A66" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="B66" s="67" t="s">
+      <c r="B66" s="66" t="s">
         <v>827</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -21649,10 +21649,10 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="21" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B67" s="68" t="s">
-        <v>1048</v>
+        <v>1097</v>
+      </c>
+      <c r="B67" s="67" t="s">
+        <v>1046</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>906</v>
@@ -21663,7 +21663,7 @@
       <c r="E67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="65"/>
+      <c r="F67" s="64"/>
       <c r="G67" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A67, "" ""))"),3.0)</f>
         <v>3</v>
@@ -21675,10 +21675,10 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B68" s="67" t="s">
-        <v>1050</v>
+        <v>1098</v>
+      </c>
+      <c r="B68" s="66" t="s">
+        <v>1048</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>906</v>
@@ -21701,10 +21701,10 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="21" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B69" s="68" t="s">
-        <v>1052</v>
+        <v>1099</v>
+      </c>
+      <c r="B69" s="67" t="s">
+        <v>1050</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>906</v>
@@ -21715,7 +21715,7 @@
       <c r="E69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="65"/>
+      <c r="F69" s="64"/>
       <c r="G69" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A69, "" ""))"),4.0)</f>
         <v>4</v>
@@ -21727,10 +21727,10 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B70" s="75" t="s">
-        <v>1054</v>
+        <v>1051</v>
+      </c>
+      <c r="B70" s="74" t="s">
+        <v>1052</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>906</v>
@@ -21753,10 +21753,10 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="21" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B71" s="74" t="s">
-        <v>1056</v>
+        <v>1053</v>
+      </c>
+      <c r="B71" s="73" t="s">
+        <v>1054</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>906</v>
@@ -21767,7 +21767,7 @@
       <c r="E71" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="65"/>
+      <c r="F71" s="64"/>
       <c r="G71" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A71, "" ""))"),3.0)</f>
         <v>3</v>
@@ -21779,10 +21779,10 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="17" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B72" s="75" t="s">
-        <v>1058</v>
+        <v>1100</v>
+      </c>
+      <c r="B72" s="74" t="s">
+        <v>1056</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>906</v>
@@ -21805,10 +21805,10 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="21" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B73" s="74" t="s">
-        <v>1060</v>
+        <v>1101</v>
+      </c>
+      <c r="B73" s="73" t="s">
+        <v>1058</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>906</v>
@@ -21819,7 +21819,7 @@
       <c r="E73" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="65"/>
+      <c r="F73" s="64"/>
       <c r="G73" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A73, "" ""))"),1.0)</f>
         <v>1</v>
@@ -21831,10 +21831,10 @@
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B74" s="75" t="s">
-        <v>1062</v>
+        <v>1102</v>
+      </c>
+      <c r="B74" s="74" t="s">
+        <v>1060</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>906</v>
@@ -21857,10 +21857,10 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="21" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B75" s="73" t="s">
         <v>1104</v>
-      </c>
-      <c r="B75" s="74" t="s">
-        <v>1105</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>906</v>
@@ -21871,7 +21871,7 @@
       <c r="E75" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="65"/>
+      <c r="F75" s="64"/>
       <c r="G75" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A75, "" ""))"),1.0)</f>
         <v>1</v>
@@ -21883,10 +21883,10 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="17" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B76" s="75" t="s">
-        <v>1066</v>
+        <v>1105</v>
+      </c>
+      <c r="B76" s="74" t="s">
+        <v>1064</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>906</v>
@@ -21909,10 +21909,10 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="21" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B77" s="74" t="s">
-        <v>1068</v>
+        <v>1106</v>
+      </c>
+      <c r="B77" s="73" t="s">
+        <v>1066</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>906</v>
@@ -21923,7 +21923,7 @@
       <c r="E77" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F77" s="65"/>
+      <c r="F77" s="64"/>
       <c r="G77" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A77, "" ""))"),3.0)</f>
         <v>3</v>
@@ -21935,10 +21935,10 @@
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="17" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B78" s="79" t="s">
         <v>1108</v>
-      </c>
-      <c r="B78" s="79" t="s">
-        <v>1109</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>906</v>
@@ -21961,10 +21961,10 @@
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="21" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B79" s="76" t="s">
         <v>1110</v>
-      </c>
-      <c r="B79" s="77" t="s">
-        <v>1111</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>906</v>
@@ -21975,7 +21975,7 @@
       <c r="E79" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="65"/>
+      <c r="F79" s="64"/>
       <c r="G79" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A79, "" ""))"),6.0)</f>
         <v>6</v>
@@ -21987,10 +21987,10 @@
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="17" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B80" s="80" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>906</v>
@@ -22013,10 +22013,10 @@
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="21" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B81" s="81" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>906</v>
@@ -22027,7 +22027,7 @@
       <c r="E81" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="65"/>
+      <c r="F81" s="64"/>
       <c r="G81" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A81, "" ""))"),1.0)</f>
         <v>1</v>
@@ -22039,10 +22039,10 @@
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="17" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B82" s="75" t="s">
-        <v>1078</v>
+        <v>1113</v>
+      </c>
+      <c r="B82" s="74" t="s">
+        <v>1076</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>906</v>
@@ -22065,10 +22065,10 @@
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="21" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B83" s="68" t="s">
-        <v>1080</v>
+        <v>1114</v>
+      </c>
+      <c r="B83" s="67" t="s">
+        <v>1078</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>906</v>
@@ -22091,10 +22091,10 @@
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="17" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B84" s="67" t="s">
-        <v>1082</v>
+        <v>1115</v>
+      </c>
+      <c r="B84" s="66" t="s">
+        <v>1080</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>906</v>
@@ -22117,10 +22117,10 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B85" s="68" t="s">
-        <v>1084</v>
+        <v>1116</v>
+      </c>
+      <c r="B85" s="67" t="s">
+        <v>1082</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>906</v>
@@ -22143,10 +22143,10 @@
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="17" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B86" s="75" t="s">
-        <v>1086</v>
+        <v>1117</v>
+      </c>
+      <c r="B86" s="74" t="s">
+        <v>1084</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>906</v>
@@ -22169,10 +22169,10 @@
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="21" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B87" s="68" t="s">
-        <v>1088</v>
+        <v>1118</v>
+      </c>
+      <c r="B87" s="67" t="s">
+        <v>1086</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>906</v>
@@ -22195,10 +22195,10 @@
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B88" s="75" t="s">
-        <v>1090</v>
+        <v>1119</v>
+      </c>
+      <c r="B88" s="74" t="s">
+        <v>1088</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>906</v>
@@ -22221,10 +22221,10 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B89" s="74" t="s">
-        <v>1092</v>
+        <v>1120</v>
+      </c>
+      <c r="B89" s="73" t="s">
+        <v>1090</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>906</v>
@@ -22247,10 +22247,10 @@
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B90" s="75" t="s">
-        <v>1094</v>
+        <v>1121</v>
+      </c>
+      <c r="B90" s="74" t="s">
+        <v>1092</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>906</v>
@@ -22273,10 +22273,10 @@
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="84" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B91" s="85" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C91" s="54" t="s">
         <v>906</v>
@@ -22303,7 +22303,7 @@
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B91">
+  <conditionalFormatting sqref="B1:B2 B4:B29 B31:B91">
     <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
@@ -22379,7 +22379,7 @@
         <v>990</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -22404,11 +22404,11 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B3" s="90" t="s">
         <v>1125</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>1126</v>
-      </c>
       <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
@@ -22418,7 +22418,7 @@
       <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="65"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A3, "" ""))"),7.0)</f>
         <v>7</v>
@@ -22430,10 +22430,10 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>1127</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>1128</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -22470,7 +22470,7 @@
       <c r="E5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="65"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A5, "" ""))"),7.0)</f>
         <v>7</v>
@@ -22482,10 +22482,10 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B6" s="91" t="s">
         <v>1129</v>
-      </c>
-      <c r="B6" s="91" t="s">
-        <v>1130</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -22508,11 +22508,11 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="21" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B7" s="90" t="s">
         <v>1131</v>
       </c>
-      <c r="B7" s="90" t="s">
-        <v>1132</v>
-      </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
@@ -22522,7 +22522,7 @@
       <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="65"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A7, "" ""))"),18.0)</f>
         <v>18</v>
@@ -22534,10 +22534,10 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B8" s="92" t="s">
         <v>1133</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>1134</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>10</v>
@@ -22560,22 +22560,22 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B9" s="93" t="s">
         <v>1135</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="94" t="s">
         <v>1136</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="94" t="s">
-        <v>1137</v>
       </c>
       <c r="G9" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A9, "" ""))"),12.0)</f>
@@ -22588,22 +22588,22 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B10" s="88" t="s">
         <v>1138</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="95" t="s">
         <v>1139</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>1140</v>
       </c>
       <c r="G10" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A10, "" ""))"),25.0)</f>
@@ -22616,10 +22616,10 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="21" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B11" s="90" t="s">
         <v>1141</v>
-      </c>
-      <c r="B11" s="90" t="s">
-        <v>1142</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>10</v>
@@ -22641,10 +22641,10 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B12" s="96" t="s">
         <v>1143</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>1144</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>10</v>
@@ -22667,11 +22667,11 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B13" s="97" t="s">
         <v>1145</v>
       </c>
-      <c r="B13" s="97" t="s">
-        <v>1146</v>
-      </c>
       <c r="C13" s="12" t="s">
         <v>10</v>
       </c>
@@ -22681,7 +22681,7 @@
       <c r="E13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="65"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A13, "" ""))"),16.0)</f>
         <v>16</v>
@@ -22693,10 +22693,10 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B14" s="91" t="s">
         <v>1147</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>1148</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>10</v>
@@ -22719,11 +22719,11 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="21" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B15" s="98" t="s">
         <v>1149</v>
       </c>
-      <c r="B15" s="98" t="s">
-        <v>1150</v>
-      </c>
       <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
@@ -22733,7 +22733,7 @@
       <c r="E15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A15, "" ""))"),22.0)</f>
         <v>22</v>
@@ -22745,10 +22745,10 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B16" s="99" t="s">
         <v>1151</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>1152</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -22771,11 +22771,11 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="21" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B17" s="93" t="s">
         <v>1153</v>
       </c>
-      <c r="B17" s="93" t="s">
-        <v>1154</v>
-      </c>
       <c r="C17" s="12" t="s">
         <v>10</v>
       </c>
@@ -22785,7 +22785,7 @@
       <c r="E17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A17, "" ""))"),6.0)</f>
         <v>6</v>
@@ -22797,10 +22797,10 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B18" s="88" t="s">
         <v>1155</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>1156</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
@@ -22823,11 +22823,11 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B19" s="93" t="s">
         <v>1037</v>
       </c>
-      <c r="B19" s="93" t="s">
-        <v>1038</v>
-      </c>
       <c r="C19" s="12" t="s">
         <v>10</v>
       </c>
@@ -22837,7 +22837,7 @@
       <c r="E19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="65"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A19, "" ""))"),6.0)</f>
         <v>6</v>
@@ -22849,10 +22849,10 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B20" s="88" t="s">
         <v>1157</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>1158</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>10</v>
@@ -22875,11 +22875,11 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="21" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B21" s="93" t="s">
         <v>1159</v>
       </c>
-      <c r="B21" s="93" t="s">
-        <v>1160</v>
-      </c>
       <c r="C21" s="12" t="s">
         <v>10</v>
       </c>
@@ -22889,7 +22889,7 @@
       <c r="E21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="65"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A21, "" ""))"),9.0)</f>
         <v>9</v>
@@ -22901,10 +22901,10 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B22" s="88" t="s">
         <v>1161</v>
-      </c>
-      <c r="B22" s="88" t="s">
-        <v>1162</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>10</v>
@@ -22927,11 +22927,11 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B23" s="93" t="s">
         <v>1163</v>
       </c>
-      <c r="B23" s="93" t="s">
-        <v>1164</v>
-      </c>
       <c r="C23" s="12" t="s">
         <v>10</v>
       </c>
@@ -22941,7 +22941,7 @@
       <c r="E23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="65"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A23, "" ""))"),16.0)</f>
         <v>16</v>
@@ -22953,10 +22953,10 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B24" s="88" t="s">
         <v>1165</v>
-      </c>
-      <c r="B24" s="88" t="s">
-        <v>1166</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>10</v>
@@ -22979,11 +22979,11 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="21" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B25" s="93" t="s">
         <v>1167</v>
       </c>
-      <c r="B25" s="93" t="s">
-        <v>1168</v>
-      </c>
       <c r="C25" s="12" t="s">
         <v>10</v>
       </c>
@@ -22993,7 +22993,7 @@
       <c r="E25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="65"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A25, "" ""))"),20.0)</f>
         <v>20</v>
@@ -23005,10 +23005,10 @@
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B26" s="91" t="s">
         <v>1169</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>1170</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>10</v>
@@ -23031,11 +23031,11 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="21" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B27" s="100" t="s">
         <v>1171</v>
       </c>
-      <c r="B27" s="100" t="s">
-        <v>1172</v>
-      </c>
       <c r="C27" s="12" t="s">
         <v>10</v>
       </c>
@@ -23045,7 +23045,7 @@
       <c r="E27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="64"/>
       <c r="G27" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A27, "" ""))"),18.0)</f>
         <v>18</v>
@@ -23057,10 +23057,10 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B28" s="101" t="s">
         <v>1173</v>
-      </c>
-      <c r="B28" s="101" t="s">
-        <v>1174</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>10</v>
@@ -23097,7 +23097,7 @@
       <c r="E29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="65"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A29, "" ""))"),1.0)</f>
         <v>1</v>
@@ -23109,10 +23109,10 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="17" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B30" s="91" t="s">
         <v>1175</v>
-      </c>
-      <c r="B30" s="91" t="s">
-        <v>1176</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>596</v>
@@ -23135,10 +23135,10 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="21" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B31" s="90" t="s">
         <v>1177</v>
-      </c>
-      <c r="B31" s="90" t="s">
-        <v>1178</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>596</v>
@@ -23149,7 +23149,7 @@
       <c r="E31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="65"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A31, "" ""))"),2.0)</f>
         <v>2</v>
@@ -23161,10 +23161,10 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B32" s="91" t="s">
         <v>1179</v>
-      </c>
-      <c r="B32" s="91" t="s">
-        <v>1180</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>596</v>
@@ -23187,10 +23187,10 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="21" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B33" s="90" t="s">
         <v>1181</v>
-      </c>
-      <c r="B33" s="90" t="s">
-        <v>1182</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>596</v>
@@ -23201,7 +23201,7 @@
       <c r="E33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="65"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A33, "" ""))"),3.0)</f>
         <v>3</v>
@@ -23213,10 +23213,10 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>596</v>
@@ -23239,10 +23239,10 @@
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="21" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B35" s="100" t="s">
         <v>1184</v>
-      </c>
-      <c r="B35" s="100" t="s">
-        <v>1185</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>596</v>
@@ -23253,7 +23253,7 @@
       <c r="E35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="65"/>
+      <c r="F35" s="64"/>
       <c r="G35" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A35, "" ""))"),2.0)</f>
         <v>2</v>
@@ -23265,10 +23265,10 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B36" s="91" t="s">
         <v>1186</v>
-      </c>
-      <c r="B36" s="91" t="s">
-        <v>1187</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>596</v>
@@ -23291,10 +23291,10 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="21" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B37" s="90" t="s">
         <v>1188</v>
-      </c>
-      <c r="B37" s="90" t="s">
-        <v>1189</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>596</v>
@@ -23305,7 +23305,7 @@
       <c r="E37" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="65"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A37, "" ""))"),2.0)</f>
         <v>2</v>
@@ -23317,10 +23317,10 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="17" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B38" s="91" t="s">
         <v>1190</v>
-      </c>
-      <c r="B38" s="91" t="s">
-        <v>1191</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>596</v>
@@ -23343,10 +23343,10 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="21" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B39" s="90" t="s">
         <v>1192</v>
-      </c>
-      <c r="B39" s="90" t="s">
-        <v>1193</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>596</v>
@@ -23357,7 +23357,7 @@
       <c r="E39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="65"/>
+      <c r="F39" s="64"/>
       <c r="G39" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A39, "" ""))"),2.0)</f>
         <v>2</v>
@@ -23369,10 +23369,10 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B40" s="91" t="s">
         <v>1194</v>
-      </c>
-      <c r="B40" s="91" t="s">
-        <v>1195</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>596</v>
@@ -23395,10 +23395,10 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="21" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B41" s="90" t="s">
         <v>1196</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>1197</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>596</v>
@@ -23409,7 +23409,7 @@
       <c r="E41" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="65"/>
+      <c r="F41" s="64"/>
       <c r="G41" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A41, "" ""))"),2.0)</f>
         <v>2</v>
@@ -23421,10 +23421,10 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B42" s="91" t="s">
         <v>1198</v>
-      </c>
-      <c r="B42" s="91" t="s">
-        <v>1199</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>596</v>
@@ -23461,7 +23461,7 @@
       <c r="E43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="65"/>
+      <c r="F43" s="64"/>
       <c r="G43" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A43, "" ""))"),1.0)</f>
         <v>1</v>
@@ -23499,10 +23499,10 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B45" s="90" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>596</v>
@@ -23513,7 +23513,7 @@
       <c r="E45" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="65"/>
+      <c r="F45" s="64"/>
       <c r="G45" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A45, "" ""))"),6.0)</f>
         <v>6</v>
@@ -23525,10 +23525,10 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>596</v>
@@ -23551,10 +23551,10 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B47" s="90" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>596</v>
@@ -23565,7 +23565,7 @@
       <c r="E47" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="65"/>
+      <c r="F47" s="64"/>
       <c r="G47" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A47, "" ""))"),3.0)</f>
         <v>3</v>
@@ -23577,10 +23577,10 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="17" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B48" s="91" t="s">
         <v>1200</v>
-      </c>
-      <c r="B48" s="91" t="s">
-        <v>1201</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>596</v>
@@ -23603,10 +23603,10 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="21" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B49" s="90" t="s">
         <v>1202</v>
-      </c>
-      <c r="B49" s="90" t="s">
-        <v>1203</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>596</v>
@@ -23617,7 +23617,7 @@
       <c r="E49" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="65"/>
+      <c r="F49" s="64"/>
       <c r="G49" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A49, "" ""))"),1.0)</f>
         <v>1</v>
@@ -23629,10 +23629,10 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B50" s="91" t="s">
         <v>1204</v>
-      </c>
-      <c r="B50" s="91" t="s">
-        <v>1205</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>596</v>
@@ -23655,10 +23655,10 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="21" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B51" s="90" t="s">
         <v>1206</v>
-      </c>
-      <c r="B51" s="90" t="s">
-        <v>1207</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>596</v>
@@ -23669,7 +23669,7 @@
       <c r="E51" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="65"/>
+      <c r="F51" s="64"/>
       <c r="G51" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A51, "" ""))"),1.0)</f>
         <v>1</v>
@@ -23681,10 +23681,10 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="17" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B52" s="91" t="s">
         <v>1208</v>
-      </c>
-      <c r="B52" s="91" t="s">
-        <v>1209</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>596</v>
@@ -23707,10 +23707,10 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>596</v>
@@ -23721,7 +23721,7 @@
       <c r="E53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="65"/>
+      <c r="F53" s="64"/>
       <c r="G53" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A53, "" ""))"),1.0)</f>
         <v>1</v>
@@ -23733,10 +23733,10 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B54" s="91" t="s">
         <v>1211</v>
-      </c>
-      <c r="B54" s="91" t="s">
-        <v>1212</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>596</v>
@@ -23759,10 +23759,10 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="21" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B55" s="90" t="s">
         <v>1213</v>
-      </c>
-      <c r="B55" s="90" t="s">
-        <v>1214</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>596</v>
@@ -23773,7 +23773,7 @@
       <c r="E55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="65"/>
+      <c r="F55" s="64"/>
       <c r="G55" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A55, "" ""))"),4.0)</f>
         <v>4</v>
@@ -23785,10 +23785,10 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B56" s="102" t="s">
         <v>1215</v>
-      </c>
-      <c r="B56" s="102" t="s">
-        <v>1216</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>596</v>
@@ -23811,10 +23811,10 @@
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="21" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B57" s="90" t="s">
         <v>1217</v>
-      </c>
-      <c r="B57" s="90" t="s">
-        <v>1218</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>596</v>
@@ -23825,7 +23825,7 @@
       <c r="E57" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="65"/>
+      <c r="F57" s="64"/>
       <c r="G57" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A57, "" ""))"),2.0)</f>
         <v>2</v>
@@ -23837,10 +23837,10 @@
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B58" s="91" t="s">
         <v>1219</v>
-      </c>
-      <c r="B58" s="91" t="s">
-        <v>1220</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>596</v>
@@ -23863,10 +23863,10 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="21" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B59" s="90" t="s">
         <v>1221</v>
-      </c>
-      <c r="B59" s="90" t="s">
-        <v>1222</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>596</v>
@@ -23877,7 +23877,7 @@
       <c r="E59" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="65"/>
+      <c r="F59" s="64"/>
       <c r="G59" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A59, "" ""))"),2.0)</f>
         <v>2</v>
@@ -23889,10 +23889,10 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="17" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B60" s="101" t="s">
         <v>1223</v>
-      </c>
-      <c r="B60" s="101" t="s">
-        <v>1224</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>596</v>
@@ -23915,10 +23915,10 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B61" s="100" t="s">
         <v>1225</v>
-      </c>
-      <c r="B61" s="100" t="s">
-        <v>1226</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>596</v>
@@ -23929,7 +23929,7 @@
       <c r="E61" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="65"/>
+      <c r="F61" s="64"/>
       <c r="G61" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A61, "" ""))"),6.0)</f>
         <v>6</v>
@@ -23941,10 +23941,10 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="17" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B62" s="101" t="s">
         <v>1227</v>
-      </c>
-      <c r="B62" s="101" t="s">
-        <v>1228</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>596</v>
@@ -23967,10 +23967,10 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="21" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B63" s="100" t="s">
         <v>1229</v>
-      </c>
-      <c r="B63" s="100" t="s">
-        <v>1230</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>596</v>
@@ -23981,7 +23981,7 @@
       <c r="E63" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="65"/>
+      <c r="F63" s="64"/>
       <c r="G63" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A63, "" ""))"),5.0)</f>
         <v>5</v>
@@ -23993,7 +23993,7 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B64" s="91" t="s">
         <v>595</v>
@@ -24019,10 +24019,10 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B65" s="90" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>906</v>
@@ -24033,7 +24033,7 @@
       <c r="E65" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="65"/>
+      <c r="F65" s="64"/>
       <c r="G65" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A65, "" ""))"),3.0)</f>
         <v>3</v>
@@ -24045,10 +24045,10 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B66" s="91" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>906</v>
@@ -24071,10 +24071,10 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="21" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B67" s="90" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>906</v>
@@ -24085,7 +24085,7 @@
       <c r="E67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="65"/>
+      <c r="F67" s="64"/>
       <c r="G67" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A67, "" ""))"),5.0)</f>
         <v>5</v>
@@ -24097,10 +24097,10 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B68" s="91" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>906</v>
@@ -24123,10 +24123,10 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>906</v>
@@ -24137,7 +24137,7 @@
       <c r="E69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="65"/>
+      <c r="F69" s="64"/>
       <c r="G69" s="15">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(SPLIT(A69, "" ""))"),4.0)</f>
         <v>4</v>
@@ -24149,10 +24149,10 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B70" s="101" t="s">
         <v>1184</v>
-      </c>
-      <c r="B70" s="101" t="s">
-        <v>1185</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>906</v>
@@ -24175,10 +24175,10 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="21" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B71" s="90" t="s">
         <v>1186</v>
-      </c>
-      <c r="B71" s="90" t="s">
-        <v>1187</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>906</v>
@@ -24201,10 +24201,10 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="17" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B72" s="91" t="s">
         <v>1188</v>
-      </c>
-      <c r="B72" s="91" t="s">
-        <v>1189</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>906</v>
@@ -24227,10 +24227,10 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="21" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B73" s="90" t="s">
         <v>1190</v>
-      </c>
-      <c r="B73" s="90" t="s">
-        <v>1191</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>906</v>
@@ -24253,10 +24253,10 @@
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B74" s="91" t="s">
         <v>1192</v>
-      </c>
-      <c r="B74" s="91" t="s">
-        <v>1193</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>906</v>
@@ -24279,10 +24279,10 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="21" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B75" s="90" t="s">
         <v>1194</v>
-      </c>
-      <c r="B75" s="90" t="s">
-        <v>1195</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>906</v>
@@ -24305,10 +24305,10 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="17" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B76" s="91" t="s">
         <v>1196</v>
-      </c>
-      <c r="B76" s="91" t="s">
-        <v>1197</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>906</v>
@@ -24331,10 +24331,10 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="21" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B77" s="90" t="s">
         <v>1198</v>
-      </c>
-      <c r="B77" s="90" t="s">
-        <v>1199</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>906</v>
@@ -24409,10 +24409,10 @@
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="17" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B80" s="91" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>906</v>
@@ -24435,10 +24435,10 @@
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="21" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B81" s="90" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>906</v>
@@ -24461,10 +24461,10 @@
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="17" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B82" s="91" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>906</v>
@@ -24487,10 +24487,10 @@
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B83" s="90" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>906</v>
@@ -24513,10 +24513,10 @@
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="17" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B84" s="91" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>906</v>
@@ -24539,10 +24539,10 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="21" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B85" s="90" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>906</v>
@@ -24565,10 +24565,10 @@
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="17" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B86" s="91" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>906</v>
@@ -24591,10 +24591,10 @@
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="21" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B87" s="90" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>906</v>
@@ -24617,10 +24617,10 @@
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B88" s="101" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>906</v>
@@ -24643,10 +24643,10 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B89" s="90" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>906</v>
@@ -24669,10 +24669,10 @@
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B90" s="91" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>906</v>
@@ -24695,10 +24695,10 @@
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="21" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B91" s="105" t="s">
         <v>1215</v>
-      </c>
-      <c r="B91" s="105" t="s">
-        <v>1216</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>906</v>
@@ -24721,10 +24721,10 @@
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B92" s="91" t="s">
         <v>1217</v>
-      </c>
-      <c r="B92" s="91" t="s">
-        <v>1218</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>906</v>
@@ -24747,10 +24747,10 @@
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="21" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B93" s="90" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>906</v>
@@ -24773,10 +24773,10 @@
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="17" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B94" s="91" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>906</v>
@@ -24799,10 +24799,10 @@
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="21" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B95" s="100" t="s">
         <v>1246</v>
-      </c>
-      <c r="B95" s="100" t="s">
-        <v>1247</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>906</v>
@@ -24825,10 +24825,10 @@
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="17" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B96" s="101" t="s">
         <v>1248</v>
-      </c>
-      <c r="B96" s="101" t="s">
-        <v>1249</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>906</v>
@@ -24851,10 +24851,10 @@
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B97" s="100" t="s">
         <v>1250</v>
-      </c>
-      <c r="B97" s="100" t="s">
-        <v>1251</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>906</v>
@@ -24877,10 +24877,10 @@
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="17" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B98" s="101" t="s">
         <v>1252</v>
-      </c>
-      <c r="B98" s="101" t="s">
-        <v>1253</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>906</v>
@@ -24903,10 +24903,10 @@
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="11" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B99" s="100" t="s">
         <v>1254</v>
-      </c>
-      <c r="B99" s="100" t="s">
-        <v>1255</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>10</v>
@@ -24929,10 +24929,10 @@
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="17" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B100" s="92" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>10</v>
@@ -24955,10 +24955,10 @@
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="21" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B101" s="106" t="s">
         <v>1257</v>
-      </c>
-      <c r="B101" s="106" t="s">
-        <v>1258</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>10</v>
@@ -24981,10 +24981,10 @@
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B102" s="99" t="s">
         <v>1259</v>
-      </c>
-      <c r="B102" s="99" t="s">
-        <v>1260</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>10</v>
@@ -25007,10 +25007,10 @@
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="21" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B103" s="106" t="s">
         <v>1261</v>
-      </c>
-      <c r="B103" s="106" t="s">
-        <v>1262</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>10</v>
@@ -25033,10 +25033,10 @@
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="17" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B104" s="96" t="s">
         <v>1263</v>
-      </c>
-      <c r="B104" s="96" t="s">
-        <v>1264</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>10</v>
@@ -25059,10 +25059,10 @@
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="21" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B105" s="98" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>10</v>
@@ -25085,10 +25085,10 @@
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="107" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B106" s="108" t="s">
         <v>1266</v>
-      </c>
-      <c r="B106" s="108" t="s">
-        <v>1267</v>
       </c>
       <c r="C106" s="109" t="s">
         <v>10</v>
@@ -25160,24 +25160,24 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="114" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="115" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C3" s="115" t="s">
         <v>1269</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="D3" s="115" t="s">
         <v>1270</v>
-      </c>
-      <c r="D3" s="115" t="s">
-        <v>1271</v>
       </c>
       <c r="E3" s="116"/>
     </row>
     <row r="4">
       <c r="B4" s="117" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C4" s="117">
         <f>counta(Latest_Modules_and_Activites[English])</f>
@@ -25191,7 +25191,7 @@
     </row>
     <row r="5">
       <c r="B5" s="117" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C5" s="117">
         <f>counta(Latest_Navigation[English])</f>
@@ -25205,7 +25205,7 @@
     </row>
     <row r="6">
       <c r="B6" s="117" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C6" s="117">
         <f>counta(Latest_Onboarding[English])</f>
@@ -25219,7 +25219,7 @@
     </row>
     <row r="7">
       <c r="B7" s="117" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C7" s="117">
         <f>counta(Latest_Survey[English])</f>
@@ -25233,77 +25233,77 @@
     </row>
     <row r="12">
       <c r="F12" s="114" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="114" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G13" s="114" t="s">
         <v>1277</v>
       </c>
-      <c r="G13" s="114" t="s">
+      <c r="H13" s="114" t="s">
         <v>1278</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="I13" s="114" t="s">
         <v>1279</v>
-      </c>
-      <c r="I13" s="114" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="116" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G14" s="116" t="s">
         <v>1281</v>
       </c>
-      <c r="G14" s="116" t="s">
+      <c r="H14" s="116" t="s">
         <v>1282</v>
       </c>
-      <c r="H14" s="116" t="s">
+      <c r="I14" s="116" t="s">
         <v>1283</v>
-      </c>
-      <c r="I14" s="116" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="116" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G15" s="116" t="s">
         <v>1285</v>
       </c>
-      <c r="G15" s="116" t="s">
+      <c r="H15" s="116" t="s">
         <v>1286</v>
       </c>
-      <c r="H15" s="116" t="s">
+      <c r="I15" s="116" t="s">
         <v>1287</v>
-      </c>
-      <c r="I15" s="116" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="119" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G16" s="116" t="s">
         <v>1289</v>
       </c>
-      <c r="G16" s="116" t="s">
+      <c r="H16" s="116" t="s">
         <v>1290</v>
       </c>
-      <c r="H16" s="116" t="s">
+      <c r="I16" s="116" t="s">
         <v>1291</v>
-      </c>
-      <c r="I16" s="116" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="116" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G17" s="116" t="s">
         <v>1293</v>
       </c>
-      <c r="G17" s="116" t="s">
+      <c r="H17" s="116" t="s">
         <v>1294</v>
       </c>
-      <c r="H17" s="116" t="s">
+      <c r="I17" s="116" t="s">
         <v>1295</v>
-      </c>
-      <c r="I17" s="116" t="s">
-        <v>1296</v>
       </c>
     </row>
   </sheetData>
@@ -25381,7 +25381,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C4" s="120"/>
       <c r="D4" s="18" t="s">
@@ -25426,7 +25426,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C7" s="120"/>
       <c r="D7" s="13" t="s">
@@ -25516,7 +25516,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="122" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C13" s="120"/>
       <c r="D13" s="13" t="s">
@@ -25546,7 +25546,7 @@
         <v>36</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C15" s="120"/>
       <c r="D15" s="13" t="s">
@@ -25576,7 +25576,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="122" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C17" s="120"/>
       <c r="D17" s="13" t="s">
@@ -25591,7 +25591,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="126" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C18" s="120"/>
       <c r="D18" s="18" t="s">
@@ -25636,7 +25636,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C21" s="120"/>
       <c r="D21" s="13" t="s">
@@ -25651,7 +25651,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="129" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C22" s="120"/>
       <c r="D22" s="18" t="s">
@@ -25711,7 +25711,7 @@
         <v>58</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C26" s="120"/>
       <c r="D26" s="18" t="s">
@@ -25741,7 +25741,7 @@
         <v>62</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C28" s="120"/>
       <c r="D28" s="18" t="s">
@@ -25786,7 +25786,7 @@
         <v>68</v>
       </c>
       <c r="B31" s="122" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C31" s="120"/>
       <c r="D31" s="13" t="s">
@@ -25801,7 +25801,7 @@
         <v>70</v>
       </c>
       <c r="B32" s="126" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C32" s="120"/>
       <c r="D32" s="18" t="s">
@@ -25846,7 +25846,7 @@
         <v>76</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C35" s="120"/>
       <c r="D35" s="13" t="s">
@@ -25981,7 +25981,7 @@
         <v>94</v>
       </c>
       <c r="B44" s="129" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C44" s="120"/>
       <c r="D44" s="18" t="s">
@@ -26206,14 +26206,14 @@
         <v>124</v>
       </c>
       <c r="B59" s="124" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -26228,7 +26228,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
@@ -26243,7 +26243,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
@@ -26258,7 +26258,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
@@ -26273,7 +26273,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
@@ -26288,7 +26288,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
@@ -26301,7 +26301,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
@@ -26316,7 +26316,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
@@ -26324,14 +26324,14 @@
         <v>140</v>
       </c>
       <c r="B67" s="127" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C67" s="120"/>
       <c r="D67" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
@@ -26342,7 +26342,7 @@
         <v>642</v>
       </c>
       <c r="E68" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
@@ -26357,7 +26357,7 @@
         <v>11</v>
       </c>
       <c r="E69" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
@@ -26372,7 +26372,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
@@ -26380,14 +26380,14 @@
         <v>146</v>
       </c>
       <c r="B71" s="127" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C71" s="120"/>
       <c r="D71" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
@@ -26395,14 +26395,14 @@
         <v>148</v>
       </c>
       <c r="B72" s="128" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C72" s="120"/>
       <c r="D72" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
@@ -26417,7 +26417,7 @@
         <v>11</v>
       </c>
       <c r="E73" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
@@ -26432,7 +26432,7 @@
         <v>11</v>
       </c>
       <c r="E74" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
@@ -26447,7 +26447,7 @@
         <v>11</v>
       </c>
       <c r="E75" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
@@ -26462,7 +26462,7 @@
         <v>11</v>
       </c>
       <c r="E76" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
@@ -26470,14 +26470,14 @@
         <v>158</v>
       </c>
       <c r="B77" s="134" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C77" s="120"/>
       <c r="D77" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
@@ -26492,7 +26492,7 @@
         <v>11</v>
       </c>
       <c r="E78" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
@@ -26507,7 +26507,7 @@
         <v>11</v>
       </c>
       <c r="E79" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
@@ -26522,7 +26522,7 @@
         <v>11</v>
       </c>
       <c r="E80" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
@@ -26537,7 +26537,7 @@
         <v>11</v>
       </c>
       <c r="E81" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
@@ -26552,7 +26552,7 @@
         <v>11</v>
       </c>
       <c r="E82" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
@@ -26567,7 +26567,7 @@
         <v>11</v>
       </c>
       <c r="E83" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
@@ -26582,7 +26582,7 @@
         <v>11</v>
       </c>
       <c r="E84" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
@@ -26597,7 +26597,7 @@
         <v>11</v>
       </c>
       <c r="E85" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
@@ -26605,14 +26605,14 @@
         <v>176</v>
       </c>
       <c r="B86" s="129" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C86" s="120"/>
       <c r="D86" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
@@ -26627,7 +26627,7 @@
         <v>11</v>
       </c>
       <c r="E87" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
@@ -26642,7 +26642,7 @@
         <v>11</v>
       </c>
       <c r="E88" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
@@ -26657,7 +26657,7 @@
         <v>11</v>
       </c>
       <c r="E89" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
@@ -26672,7 +26672,7 @@
         <v>11</v>
       </c>
       <c r="E90" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
@@ -26687,7 +26687,7 @@
         <v>11</v>
       </c>
       <c r="E91" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
@@ -26702,7 +26702,7 @@
         <v>11</v>
       </c>
       <c r="E92" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
@@ -26717,7 +26717,7 @@
         <v>11</v>
       </c>
       <c r="E93" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
@@ -26732,7 +26732,7 @@
         <v>11</v>
       </c>
       <c r="E94" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
@@ -26747,7 +26747,7 @@
         <v>11</v>
       </c>
       <c r="E95" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
@@ -26762,7 +26762,7 @@
         <v>11</v>
       </c>
       <c r="E96" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
@@ -26777,7 +26777,7 @@
         <v>11</v>
       </c>
       <c r="E97" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
@@ -26792,7 +26792,7 @@
         <v>11</v>
       </c>
       <c r="E98" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
@@ -26807,7 +26807,7 @@
         <v>11</v>
       </c>
       <c r="E99" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
@@ -26822,7 +26822,7 @@
         <v>11</v>
       </c>
       <c r="E100" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
@@ -26837,7 +26837,7 @@
         <v>11</v>
       </c>
       <c r="E101" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
@@ -26852,7 +26852,7 @@
         <v>11</v>
       </c>
       <c r="E102" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
@@ -26867,7 +26867,7 @@
         <v>11</v>
       </c>
       <c r="E103" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
@@ -26882,7 +26882,7 @@
         <v>11</v>
       </c>
       <c r="E104" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
@@ -26897,7 +26897,7 @@
         <v>11</v>
       </c>
       <c r="E105" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
@@ -26912,7 +26912,7 @@
         <v>11</v>
       </c>
       <c r="E106" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
@@ -26927,7 +26927,7 @@
         <v>11</v>
       </c>
       <c r="E107" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
@@ -26942,7 +26942,7 @@
         <v>11</v>
       </c>
       <c r="E108" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
@@ -26957,7 +26957,7 @@
         <v>11</v>
       </c>
       <c r="E109" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
@@ -26972,7 +26972,7 @@
         <v>11</v>
       </c>
       <c r="E110" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
@@ -26980,14 +26980,14 @@
         <v>226</v>
       </c>
       <c r="B111" s="136" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C111" s="120"/>
       <c r="D111" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E111" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
@@ -27002,7 +27002,7 @@
         <v>11</v>
       </c>
       <c r="E112" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
@@ -27017,7 +27017,7 @@
         <v>11</v>
       </c>
       <c r="E113" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
@@ -27032,7 +27032,7 @@
         <v>11</v>
       </c>
       <c r="E114" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
@@ -27047,7 +27047,7 @@
         <v>11</v>
       </c>
       <c r="E115" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
@@ -27062,7 +27062,7 @@
         <v>11</v>
       </c>
       <c r="E116" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
@@ -27077,7 +27077,7 @@
         <v>11</v>
       </c>
       <c r="E117" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
@@ -27085,14 +27085,14 @@
         <v>240</v>
       </c>
       <c r="B118" s="138" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C118" s="120"/>
       <c r="D118" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
@@ -27107,7 +27107,7 @@
         <v>11</v>
       </c>
       <c r="E119" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
@@ -27122,7 +27122,7 @@
         <v>11</v>
       </c>
       <c r="E120" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
@@ -27137,7 +27137,7 @@
         <v>11</v>
       </c>
       <c r="E121" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
@@ -27152,7 +27152,7 @@
         <v>11</v>
       </c>
       <c r="E122" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
@@ -27167,7 +27167,7 @@
         <v>11</v>
       </c>
       <c r="E123" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
@@ -27182,7 +27182,7 @@
         <v>11</v>
       </c>
       <c r="E124" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
@@ -27197,7 +27197,7 @@
         <v>11</v>
       </c>
       <c r="E125" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
@@ -27212,7 +27212,7 @@
         <v>11</v>
       </c>
       <c r="E126" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
@@ -27227,7 +27227,7 @@
         <v>11</v>
       </c>
       <c r="E127" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
@@ -27242,7 +27242,7 @@
         <v>11</v>
       </c>
       <c r="E128" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
@@ -27257,7 +27257,7 @@
         <v>11</v>
       </c>
       <c r="E129" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
@@ -27272,7 +27272,7 @@
         <v>11</v>
       </c>
       <c r="E130" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
@@ -27287,7 +27287,7 @@
         <v>11</v>
       </c>
       <c r="E131" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
@@ -27302,7 +27302,7 @@
         <v>11</v>
       </c>
       <c r="E132" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
@@ -27317,7 +27317,7 @@
         <v>11</v>
       </c>
       <c r="E133" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
@@ -27332,7 +27332,7 @@
         <v>11</v>
       </c>
       <c r="E134" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
@@ -27347,7 +27347,7 @@
         <v>11</v>
       </c>
       <c r="E135" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
@@ -27362,7 +27362,7 @@
         <v>11</v>
       </c>
       <c r="E136" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
@@ -27377,7 +27377,7 @@
         <v>11</v>
       </c>
       <c r="E137" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
@@ -27392,7 +27392,7 @@
         <v>11</v>
       </c>
       <c r="E138" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
@@ -27407,7 +27407,7 @@
         <v>11</v>
       </c>
       <c r="E139" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
@@ -27422,7 +27422,7 @@
         <v>11</v>
       </c>
       <c r="E140" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
@@ -27437,7 +27437,7 @@
         <v>11</v>
       </c>
       <c r="E141" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
@@ -27452,7 +27452,7 @@
         <v>11</v>
       </c>
       <c r="E142" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
@@ -27467,7 +27467,7 @@
         <v>11</v>
       </c>
       <c r="E143" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
@@ -27475,14 +27475,14 @@
         <v>292</v>
       </c>
       <c r="B144" s="138" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C144" s="120"/>
       <c r="D144" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
@@ -27497,7 +27497,7 @@
         <v>11</v>
       </c>
       <c r="E145" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
@@ -27512,7 +27512,7 @@
         <v>11</v>
       </c>
       <c r="E146" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
@@ -27527,7 +27527,7 @@
         <v>11</v>
       </c>
       <c r="E147" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
@@ -27542,7 +27542,7 @@
         <v>11</v>
       </c>
       <c r="E148" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
@@ -27557,7 +27557,7 @@
         <v>11</v>
       </c>
       <c r="E149" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
@@ -27572,7 +27572,7 @@
         <v>11</v>
       </c>
       <c r="E150" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
@@ -27587,7 +27587,7 @@
         <v>11</v>
       </c>
       <c r="E151" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
@@ -27602,7 +27602,7 @@
         <v>11</v>
       </c>
       <c r="E152" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
@@ -27617,7 +27617,7 @@
         <v>11</v>
       </c>
       <c r="E153" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
@@ -27632,7 +27632,7 @@
         <v>11</v>
       </c>
       <c r="E154" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
@@ -27647,7 +27647,7 @@
         <v>11</v>
       </c>
       <c r="E155" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
@@ -27662,7 +27662,7 @@
         <v>11</v>
       </c>
       <c r="E156" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
@@ -27677,7 +27677,7 @@
         <v>11</v>
       </c>
       <c r="E157" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
@@ -27692,7 +27692,7 @@
         <v>11</v>
       </c>
       <c r="E158" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
@@ -27707,7 +27707,7 @@
         <v>11</v>
       </c>
       <c r="E159" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
@@ -27722,7 +27722,7 @@
         <v>11</v>
       </c>
       <c r="E160" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
@@ -27737,7 +27737,7 @@
         <v>11</v>
       </c>
       <c r="E161" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
@@ -27752,7 +27752,7 @@
         <v>11</v>
       </c>
       <c r="E162" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
@@ -27767,7 +27767,7 @@
         <v>11</v>
       </c>
       <c r="E163" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
@@ -27782,7 +27782,7 @@
         <v>11</v>
       </c>
       <c r="E164" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
@@ -27797,7 +27797,7 @@
         <v>11</v>
       </c>
       <c r="E165" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
@@ -27805,14 +27805,14 @@
         <v>335</v>
       </c>
       <c r="B166" s="144" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C166" s="120"/>
       <c r="D166" s="18" t="s">
         <v>642</v>
       </c>
       <c r="E166" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
@@ -27827,7 +27827,7 @@
         <v>11</v>
       </c>
       <c r="E167" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
@@ -27842,7 +27842,7 @@
         <v>11</v>
       </c>
       <c r="E168" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
@@ -27857,7 +27857,7 @@
         <v>11</v>
       </c>
       <c r="E169" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
@@ -27872,7 +27872,7 @@
         <v>11</v>
       </c>
       <c r="E170" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
@@ -27887,7 +27887,7 @@
         <v>11</v>
       </c>
       <c r="E171" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
@@ -27902,7 +27902,7 @@
         <v>11</v>
       </c>
       <c r="E172" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
@@ -27917,7 +27917,7 @@
         <v>11</v>
       </c>
       <c r="E173" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
@@ -27932,7 +27932,7 @@
         <v>11</v>
       </c>
       <c r="E174" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1">
@@ -27947,7 +27947,7 @@
         <v>11</v>
       </c>
       <c r="E175" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1">
@@ -27962,7 +27962,7 @@
         <v>11</v>
       </c>
       <c r="E176" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1">
@@ -27977,7 +27977,7 @@
         <v>11</v>
       </c>
       <c r="E177" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1">
@@ -27992,7 +27992,7 @@
         <v>11</v>
       </c>
       <c r="E178" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1">
@@ -28007,7 +28007,7 @@
         <v>11</v>
       </c>
       <c r="E179" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="180" ht="14.25" customHeight="1">
@@ -28022,7 +28022,7 @@
         <v>11</v>
       </c>
       <c r="E180" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
@@ -28037,7 +28037,7 @@
         <v>11</v>
       </c>
       <c r="E181" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
@@ -28052,7 +28052,7 @@
         <v>11</v>
       </c>
       <c r="E182" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
@@ -28067,7 +28067,7 @@
         <v>11</v>
       </c>
       <c r="E183" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1">
@@ -28082,7 +28082,7 @@
         <v>11</v>
       </c>
       <c r="E184" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1">
@@ -28097,7 +28097,7 @@
         <v>11</v>
       </c>
       <c r="E185" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
@@ -28112,7 +28112,7 @@
         <v>11</v>
       </c>
       <c r="E186" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1">
@@ -28127,7 +28127,7 @@
         <v>11</v>
       </c>
       <c r="E187" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1">
@@ -28142,7 +28142,7 @@
         <v>11</v>
       </c>
       <c r="E188" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1">
@@ -28157,7 +28157,7 @@
         <v>11</v>
       </c>
       <c r="E189" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
@@ -28172,7 +28172,7 @@
         <v>11</v>
       </c>
       <c r="E190" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1">
@@ -28187,7 +28187,7 @@
         <v>11</v>
       </c>
       <c r="E191" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
@@ -28202,7 +28202,7 @@
         <v>11</v>
       </c>
       <c r="E192" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1">
@@ -28217,7 +28217,7 @@
         <v>11</v>
       </c>
       <c r="E193" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
@@ -28232,7 +28232,7 @@
         <v>11</v>
       </c>
       <c r="E194" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1">
@@ -28247,7 +28247,7 @@
         <v>11</v>
       </c>
       <c r="E195" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1">
@@ -28262,7 +28262,7 @@
         <v>11</v>
       </c>
       <c r="E196" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1">
@@ -28277,7 +28277,7 @@
         <v>11</v>
       </c>
       <c r="E197" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1">
@@ -28292,7 +28292,7 @@
         <v>11</v>
       </c>
       <c r="E198" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1">
@@ -28307,7 +28307,7 @@
         <v>11</v>
       </c>
       <c r="E199" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="200" ht="14.25" customHeight="1">
@@ -28322,7 +28322,7 @@
         <v>11</v>
       </c>
       <c r="E200" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1">
@@ -28337,7 +28337,7 @@
         <v>11</v>
       </c>
       <c r="E201" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1">
@@ -28352,7 +28352,7 @@
         <v>11</v>
       </c>
       <c r="E202" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1">
@@ -28367,7 +28367,7 @@
         <v>11</v>
       </c>
       <c r="E203" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
@@ -28382,7 +28382,7 @@
         <v>11</v>
       </c>
       <c r="E204" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
@@ -28397,7 +28397,7 @@
         <v>642</v>
       </c>
       <c r="E205" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
@@ -28412,7 +28412,7 @@
         <v>11</v>
       </c>
       <c r="E206" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="207" ht="14.25" customHeight="1">
@@ -28427,7 +28427,7 @@
         <v>11</v>
       </c>
       <c r="E207" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="208" ht="14.25" customHeight="1">
@@ -28435,14 +28435,14 @@
         <v>418</v>
       </c>
       <c r="B208" s="138" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C208" s="120"/>
       <c r="D208" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E208" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1">
@@ -28457,7 +28457,7 @@
         <v>642</v>
       </c>
       <c r="E209" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
@@ -28472,7 +28472,7 @@
         <v>11</v>
       </c>
       <c r="E210" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="211" ht="14.25" customHeight="1">
@@ -28480,14 +28480,14 @@
         <v>424</v>
       </c>
       <c r="B211" s="136" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C211" s="120"/>
       <c r="D211" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E211" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
@@ -28502,7 +28502,7 @@
         <v>11</v>
       </c>
       <c r="E212" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="213" ht="14.25" customHeight="1">
@@ -28517,7 +28517,7 @@
         <v>11</v>
       </c>
       <c r="E213" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="214" ht="14.25" customHeight="1">
@@ -28532,7 +28532,7 @@
         <v>11</v>
       </c>
       <c r="E214" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="215" ht="14.25" customHeight="1">
@@ -28547,7 +28547,7 @@
         <v>11</v>
       </c>
       <c r="E215" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="216" ht="14.25" customHeight="1">
@@ -28562,7 +28562,7 @@
         <v>11</v>
       </c>
       <c r="E216" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="217" ht="14.25" customHeight="1">
@@ -28577,7 +28577,7 @@
         <v>11</v>
       </c>
       <c r="E217" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="218" ht="14.25" customHeight="1">
@@ -28592,7 +28592,7 @@
         <v>11</v>
       </c>
       <c r="E218" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="219" ht="14.25" customHeight="1">
@@ -28607,7 +28607,7 @@
         <v>11</v>
       </c>
       <c r="E219" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="220" ht="14.25" customHeight="1">
@@ -28622,7 +28622,7 @@
         <v>11</v>
       </c>
       <c r="E220" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="221" ht="14.25" customHeight="1">
@@ -28637,7 +28637,7 @@
         <v>11</v>
       </c>
       <c r="E221" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="222" ht="14.25" customHeight="1">
@@ -28652,7 +28652,7 @@
         <v>11</v>
       </c>
       <c r="E222" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="223" ht="14.25" customHeight="1">
@@ -28660,14 +28660,14 @@
         <v>448</v>
       </c>
       <c r="B223" s="136" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C223" s="120"/>
       <c r="D223" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E223" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="224" ht="14.25" customHeight="1">
@@ -28682,7 +28682,7 @@
         <v>11</v>
       </c>
       <c r="E224" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="225" ht="14.25" customHeight="1">
@@ -28697,7 +28697,7 @@
         <v>11</v>
       </c>
       <c r="E225" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="226" ht="14.25" customHeight="1">
@@ -28712,7 +28712,7 @@
         <v>11</v>
       </c>
       <c r="E226" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="227" ht="14.25" customHeight="1">
@@ -28727,7 +28727,7 @@
         <v>11</v>
       </c>
       <c r="E227" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="228" ht="14.25" customHeight="1">
@@ -28742,7 +28742,7 @@
         <v>11</v>
       </c>
       <c r="E228" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="229" ht="14.25" customHeight="1">
@@ -28757,7 +28757,7 @@
         <v>11</v>
       </c>
       <c r="E229" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="230" ht="14.25" customHeight="1">
@@ -28772,7 +28772,7 @@
         <v>11</v>
       </c>
       <c r="E230" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="231" ht="14.25" customHeight="1">
@@ -28787,7 +28787,7 @@
         <v>11</v>
       </c>
       <c r="E231" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="232" ht="14.25" customHeight="1">
@@ -28802,7 +28802,7 @@
         <v>11</v>
       </c>
       <c r="E232" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="233" ht="14.25" customHeight="1">
@@ -28817,7 +28817,7 @@
         <v>11</v>
       </c>
       <c r="E233" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="234" ht="14.25" customHeight="1">
@@ -28832,7 +28832,7 @@
         <v>11</v>
       </c>
       <c r="E234" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="235" ht="14.25" customHeight="1">
@@ -28847,7 +28847,7 @@
         <v>11</v>
       </c>
       <c r="E235" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="236" ht="14.25" customHeight="1">
@@ -28862,7 +28862,7 @@
         <v>11</v>
       </c>
       <c r="E236" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="237" ht="14.25" customHeight="1">
@@ -28877,7 +28877,7 @@
         <v>11</v>
       </c>
       <c r="E237" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="238" ht="14.25" customHeight="1">
@@ -28892,7 +28892,7 @@
         <v>11</v>
       </c>
       <c r="E238" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="239" ht="14.25" customHeight="1">
@@ -28907,7 +28907,7 @@
         <v>11</v>
       </c>
       <c r="E239" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="240" ht="14.25" customHeight="1">
@@ -28922,7 +28922,7 @@
         <v>11</v>
       </c>
       <c r="E240" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="241" ht="14.25" customHeight="1">
@@ -28937,7 +28937,7 @@
         <v>11</v>
       </c>
       <c r="E241" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="242" ht="14.25" customHeight="1">
@@ -28952,7 +28952,7 @@
         <v>11</v>
       </c>
       <c r="E242" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="243" ht="14.25" customHeight="1">
@@ -28967,7 +28967,7 @@
         <v>11</v>
       </c>
       <c r="E243" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="244" ht="14.25" customHeight="1">
@@ -28982,7 +28982,7 @@
         <v>11</v>
       </c>
       <c r="E244" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="245" ht="14.25" customHeight="1">
@@ -28997,7 +28997,7 @@
         <v>11</v>
       </c>
       <c r="E245" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="246" ht="14.25" customHeight="1">
@@ -29012,7 +29012,7 @@
         <v>11</v>
       </c>
       <c r="E246" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="247" ht="14.25" customHeight="1">
@@ -29027,7 +29027,7 @@
         <v>11</v>
       </c>
       <c r="E247" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="248" ht="14.25" customHeight="1">
@@ -29042,7 +29042,7 @@
         <v>11</v>
       </c>
       <c r="E248" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="249" ht="14.25" customHeight="1">
@@ -29057,7 +29057,7 @@
         <v>11</v>
       </c>
       <c r="E249" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="250" ht="14.25" customHeight="1">
@@ -29072,7 +29072,7 @@
         <v>11</v>
       </c>
       <c r="E250" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="251" ht="14.25" customHeight="1">
@@ -29087,7 +29087,7 @@
         <v>11</v>
       </c>
       <c r="E251" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="252" ht="14.25" customHeight="1">
@@ -29102,7 +29102,7 @@
         <v>11</v>
       </c>
       <c r="E252" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="253" ht="14.25" customHeight="1">
@@ -29117,7 +29117,7 @@
         <v>11</v>
       </c>
       <c r="E253" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="254" ht="14.25" customHeight="1">
@@ -29125,14 +29125,14 @@
         <v>509</v>
       </c>
       <c r="B254" s="138" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C254" s="120"/>
       <c r="D254" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E254" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="255" ht="14.25" customHeight="1">
@@ -29147,7 +29147,7 @@
         <v>11</v>
       </c>
       <c r="E255" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="256" ht="14.25" customHeight="1">
@@ -29162,7 +29162,7 @@
         <v>11</v>
       </c>
       <c r="E256" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="257" ht="14.25" customHeight="1">
@@ -29170,14 +29170,14 @@
         <v>515</v>
       </c>
       <c r="B257" s="136" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C257" s="120"/>
       <c r="D257" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E257" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="258" ht="14.25" customHeight="1">
@@ -29192,7 +29192,7 @@
         <v>11</v>
       </c>
       <c r="E258" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="259" ht="14.25" customHeight="1">
@@ -29207,7 +29207,7 @@
         <v>11</v>
       </c>
       <c r="E259" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="260" ht="14.25" customHeight="1">
@@ -29222,7 +29222,7 @@
         <v>11</v>
       </c>
       <c r="E260" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="261" ht="14.25" customHeight="1">
@@ -29237,7 +29237,7 @@
         <v>11</v>
       </c>
       <c r="E261" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="262" ht="14.25" customHeight="1">
@@ -29252,7 +29252,7 @@
         <v>642</v>
       </c>
       <c r="E262" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="263" ht="14.25" customHeight="1">
@@ -29267,7 +29267,7 @@
         <v>11</v>
       </c>
       <c r="E263" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="264" ht="14.25" customHeight="1">
@@ -29282,7 +29282,7 @@
         <v>11</v>
       </c>
       <c r="E264" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="265" ht="14.25" customHeight="1">
@@ -29297,7 +29297,7 @@
         <v>11</v>
       </c>
       <c r="E265" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="266" ht="14.25" customHeight="1">
@@ -29312,7 +29312,7 @@
         <v>11</v>
       </c>
       <c r="E266" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="267" ht="14.25" customHeight="1">
@@ -29327,7 +29327,7 @@
         <v>11</v>
       </c>
       <c r="E267" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="268" ht="14.25" customHeight="1">
@@ -29342,7 +29342,7 @@
         <v>11</v>
       </c>
       <c r="E268" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="269" ht="14.25" customHeight="1">
@@ -29357,7 +29357,7 @@
         <v>11</v>
       </c>
       <c r="E269" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="270" ht="14.25" customHeight="1">
@@ -29372,7 +29372,7 @@
         <v>11</v>
       </c>
       <c r="E270" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="271" ht="14.25" customHeight="1">
@@ -29387,7 +29387,7 @@
         <v>11</v>
       </c>
       <c r="E271" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="272" ht="14.25" customHeight="1">
@@ -29402,7 +29402,7 @@
         <v>11</v>
       </c>
       <c r="E272" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="273" ht="14.25" customHeight="1">
@@ -29417,7 +29417,7 @@
         <v>11</v>
       </c>
       <c r="E273" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="274" ht="14.25" customHeight="1">
@@ -29432,7 +29432,7 @@
         <v>11</v>
       </c>
       <c r="E274" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="275" ht="14.25" customHeight="1">
@@ -29447,7 +29447,7 @@
         <v>11</v>
       </c>
       <c r="E275" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="276" ht="14.25" customHeight="1">
@@ -29462,7 +29462,7 @@
         <v>11</v>
       </c>
       <c r="E276" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="277" ht="14.25" customHeight="1">
@@ -29477,7 +29477,7 @@
         <v>11</v>
       </c>
       <c r="E277" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="278" ht="14.25" customHeight="1">
@@ -29492,7 +29492,7 @@
         <v>11</v>
       </c>
       <c r="E278" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="279" ht="14.25" customHeight="1">
@@ -29507,7 +29507,7 @@
         <v>11</v>
       </c>
       <c r="E279" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="280" ht="14.25" customHeight="1">
@@ -29522,7 +29522,7 @@
         <v>11</v>
       </c>
       <c r="E280" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="281" ht="14.25" customHeight="1">
@@ -29537,7 +29537,7 @@
         <v>11</v>
       </c>
       <c r="E281" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="282" ht="14.25" customHeight="1">
@@ -29552,7 +29552,7 @@
         <v>11</v>
       </c>
       <c r="E282" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="283" ht="14.25" customHeight="1">
@@ -29567,7 +29567,7 @@
         <v>11</v>
       </c>
       <c r="E283" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="284" ht="14.25" customHeight="1">
@@ -29575,14 +29575,14 @@
         <v>568</v>
       </c>
       <c r="B284" s="138" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C284" s="120"/>
       <c r="D284" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E284" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="285" ht="14.25" customHeight="1">
@@ -29597,7 +29597,7 @@
         <v>11</v>
       </c>
       <c r="E285" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="286" ht="14.25" customHeight="1">
@@ -29612,7 +29612,7 @@
         <v>642</v>
       </c>
       <c r="E286" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="287" ht="14.25" customHeight="1">
@@ -29627,7 +29627,7 @@
         <v>642</v>
       </c>
       <c r="E287" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="288" ht="14.25" customHeight="1">
@@ -29642,7 +29642,7 @@
         <v>642</v>
       </c>
       <c r="E288" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="289" ht="14.25" customHeight="1">
@@ -29657,7 +29657,7 @@
         <v>11</v>
       </c>
       <c r="E289" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="290" ht="14.25" customHeight="1">
@@ -29672,7 +29672,7 @@
         <v>642</v>
       </c>
       <c r="E290" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="291" ht="14.25" customHeight="1">
@@ -29687,7 +29687,7 @@
         <v>642</v>
       </c>
       <c r="E291" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="292" ht="14.25" customHeight="1">
@@ -29702,7 +29702,7 @@
         <v>11</v>
       </c>
       <c r="E292" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="293" ht="14.25" customHeight="1">
@@ -29717,7 +29717,7 @@
         <v>11</v>
       </c>
       <c r="E293" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="294" ht="14.25" customHeight="1">
@@ -29732,7 +29732,7 @@
         <v>11</v>
       </c>
       <c r="E294" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="295" ht="14.25" customHeight="1">
@@ -29740,14 +29740,14 @@
         <v>590</v>
       </c>
       <c r="B295" s="136" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C295" s="120"/>
       <c r="D295" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E295" s="137" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="296" ht="14.25" customHeight="1">
@@ -29762,7 +29762,7 @@
         <v>11</v>
       </c>
       <c r="E296" s="139" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="297" ht="14.25" customHeight="1">
@@ -29777,7 +29777,7 @@
         <v>11</v>
       </c>
       <c r="E297" s="149" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
   </sheetData>
@@ -29943,10 +29943,10 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>10</v>
@@ -29977,10 +29977,10 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B10" s="155" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
@@ -30096,10 +30096,10 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B17" s="158" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>10</v>
@@ -30218,7 +30218,7 @@
         <v>636</v>
       </c>
       <c r="B24" s="129" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>10</v>
@@ -30252,7 +30252,7 @@
         <v>640</v>
       </c>
       <c r="B26" s="129" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>10</v>
@@ -30269,7 +30269,7 @@
         <v>643</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>10</v>
@@ -30371,7 +30371,7 @@
         <v>655</v>
       </c>
       <c r="B33" s="122" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>10</v>
@@ -30388,7 +30388,7 @@
         <v>657</v>
       </c>
       <c r="B34" s="129" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>10</v>
@@ -30405,7 +30405,7 @@
         <v>659</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>10</v>
@@ -30422,7 +30422,7 @@
         <v>661</v>
       </c>
       <c r="B36" s="159" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>10</v>
@@ -30490,7 +30490,7 @@
         <v>669</v>
       </c>
       <c r="B40" s="129" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>10</v>
@@ -30524,7 +30524,7 @@
         <v>673</v>
       </c>
       <c r="B42" s="129" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>10</v>
@@ -30915,7 +30915,7 @@
         <v>717</v>
       </c>
       <c r="B65" s="163" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>10</v>
@@ -30966,7 +30966,7 @@
         <v>723</v>
       </c>
       <c r="B68" s="159" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>10</v>
@@ -31000,7 +31000,7 @@
         <v>727</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>10</v>
@@ -31017,7 +31017,7 @@
         <v>729</v>
       </c>
       <c r="B71" s="122" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>10</v>
@@ -31034,7 +31034,7 @@
         <v>731</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>10</v>
@@ -31068,7 +31068,7 @@
         <v>735</v>
       </c>
       <c r="B74" s="159" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>10</v>
@@ -31085,7 +31085,7 @@
         <v>737</v>
       </c>
       <c r="B75" s="122" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>10</v>
@@ -31116,10 +31116,10 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="21" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B77" s="122" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>10</v>
@@ -31153,7 +31153,7 @@
         <v>744</v>
       </c>
       <c r="B79" s="122" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>10</v>
@@ -31306,7 +31306,7 @@
         <v>764</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>10</v>
@@ -31323,7 +31323,7 @@
         <v>766</v>
       </c>
       <c r="B89" s="122" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>10</v>
@@ -31765,7 +31765,7 @@
         <v>818</v>
       </c>
       <c r="B115" s="122" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>10</v>
@@ -31782,7 +31782,7 @@
         <v>820</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>10</v>
@@ -33640,7 +33640,7 @@
         <v>990</v>
       </c>
       <c r="B2" s="178" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -33657,24 +33657,24 @@
         <v>992</v>
       </c>
       <c r="B3" s="179" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>993</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="66" t="s">
-        <v>994</v>
-      </c>
       <c r="B4" s="144" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -33705,10 +33705,10 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="B6" s="144" t="s">
         <v>995</v>
-      </c>
-      <c r="B6" s="144" t="s">
-        <v>996</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -33722,10 +33722,10 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="21" t="s">
+        <v>996</v>
+      </c>
+      <c r="B7" s="179" t="s">
         <v>997</v>
-      </c>
-      <c r="B7" s="179" t="s">
-        <v>998</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
@@ -33739,10 +33739,10 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="17" t="s">
+        <v>998</v>
+      </c>
+      <c r="B8" s="144" t="s">
         <v>999</v>
-      </c>
-      <c r="B8" s="144" t="s">
-        <v>1000</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>10</v>
@@ -33756,10 +33756,10 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="21" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="179" t="s">
         <v>1001</v>
-      </c>
-      <c r="B9" s="179" t="s">
-        <v>1002</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>10</v>
@@ -33773,10 +33773,10 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B10" s="144" t="s">
         <v>1003</v>
-      </c>
-      <c r="B10" s="144" t="s">
-        <v>1004</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
@@ -33790,7 +33790,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B11" s="179" t="s">
         <v>1347</v>
@@ -33807,10 +33807,10 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B12" s="144" t="s">
         <v>1007</v>
-      </c>
-      <c r="B12" s="144" t="s">
-        <v>1008</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>10</v>
@@ -33824,10 +33824,10 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="21" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B13" s="179" t="s">
         <v>1009</v>
-      </c>
-      <c r="B13" s="179" t="s">
-        <v>1010</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>10</v>
@@ -33841,7 +33841,7 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B14" s="144" t="s">
         <v>1348</v>
@@ -33858,10 +33858,10 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B15" s="180" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>10</v>
@@ -33892,10 +33892,10 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="21" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="179" t="s">
         <v>1017</v>
-      </c>
-      <c r="B17" s="179" t="s">
-        <v>1018</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>10</v>
@@ -33909,7 +33909,7 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B18" s="144" t="s">
         <v>1351</v>
@@ -33926,10 +33926,10 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="21" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B19" s="179" t="s">
         <v>1021</v>
-      </c>
-      <c r="B19" s="179" t="s">
-        <v>1022</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>10</v>
@@ -33943,10 +33943,10 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B20" s="144" t="s">
         <v>1023</v>
-      </c>
-      <c r="B20" s="144" t="s">
-        <v>1024</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>10</v>
@@ -33960,10 +33960,10 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B21" s="179" t="s">
         <v>1025</v>
-      </c>
-      <c r="B21" s="179" t="s">
-        <v>1026</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>10</v>
@@ -33977,10 +33977,10 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B22" s="144" t="s">
         <v>1027</v>
-      </c>
-      <c r="B22" s="144" t="s">
-        <v>1028</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>10</v>
@@ -33994,7 +33994,7 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B23" s="179" t="s">
         <v>1352</v>
@@ -34028,10 +34028,10 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="21" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B25" s="179" t="s">
         <v>1033</v>
-      </c>
-      <c r="B25" s="179" t="s">
-        <v>1034</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>10</v>
@@ -34045,7 +34045,7 @@
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B26" s="144" t="s">
         <v>1355</v>
@@ -34062,10 +34062,10 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B27" s="179" t="s">
         <v>1037</v>
-      </c>
-      <c r="B27" s="179" t="s">
-        <v>1038</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>10</v>
@@ -34079,10 +34079,10 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B28" s="144" t="s">
         <v>1039</v>
-      </c>
-      <c r="B28" s="144" t="s">
-        <v>1040</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>10</v>
@@ -34096,10 +34096,10 @@
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="21" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B29" s="179" t="s">
         <v>1041</v>
-      </c>
-      <c r="B29" s="179" t="s">
-        <v>1042</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>10</v>
@@ -34116,7 +34116,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="144" t="s">
-        <v>1043</v>
+        <v>1096</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>596</v>
@@ -34129,11 +34129,11 @@
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="72" t="s">
         <v>984</v>
       </c>
       <c r="B31" s="179" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>596</v>
@@ -34147,7 +34147,7 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="17" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B32" s="144" t="s">
         <v>825</v>
@@ -34164,7 +34164,7 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B33" s="179" t="s">
         <v>827</v>
@@ -34198,10 +34198,10 @@
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B35" s="179" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>596</v>
@@ -34215,10 +34215,10 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="17" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B36" s="144" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>596</v>
@@ -34232,10 +34232,10 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B37" s="179" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>596</v>
@@ -34249,10 +34249,10 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B38" s="144" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>596</v>
@@ -34266,10 +34266,10 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="21" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B39" s="179" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>596</v>
@@ -34283,10 +34283,10 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B40" s="181" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>596</v>
@@ -34300,10 +34300,10 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B41" s="182" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>596</v>
@@ -34317,10 +34317,10 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B42" s="181" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>596</v>
@@ -34334,10 +34334,10 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B43" s="182" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>596</v>
@@ -34351,10 +34351,10 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B44" s="181" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>596</v>
@@ -34368,10 +34368,10 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B45" s="182" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>596</v>
@@ -34385,10 +34385,10 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B46" s="181" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>596</v>
@@ -34402,10 +34402,10 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B47" s="182" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>596</v>
@@ -34419,10 +34419,10 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="17" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B48" s="144" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>596</v>
@@ -34436,10 +34436,10 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B49" s="183" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>596</v>
@@ -34453,10 +34453,10 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B50" s="144" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>596</v>
@@ -34470,10 +34470,10 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="21" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B51" s="179" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>596</v>
@@ -34487,10 +34487,10 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="17" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B52" s="181" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>596</v>
@@ -34504,10 +34504,10 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B53" s="179" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>596</v>
@@ -34521,10 +34521,10 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B54" s="144" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>596</v>
@@ -34538,10 +34538,10 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B55" s="179" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>596</v>
@@ -34555,10 +34555,10 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B56" s="144" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>596</v>
@@ -34572,10 +34572,10 @@
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="21" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B57" s="179" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>596</v>
@@ -34589,10 +34589,10 @@
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="17" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B58" s="181" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>596</v>
@@ -34606,10 +34606,10 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="21" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B59" s="182" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>596</v>
@@ -34618,7 +34618,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="123" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -34635,15 +34635,15 @@
         <v>11</v>
       </c>
       <c r="E60" s="121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="21" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B61" s="182" t="s">
-        <v>1043</v>
+        <v>1096</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>906</v>
@@ -34656,11 +34656,11 @@
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="66" t="s">
+      <c r="A62" s="65" t="s">
         <v>984</v>
       </c>
       <c r="B62" s="181" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>906</v>
@@ -34742,10 +34742,10 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="21" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B67" s="179" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>906</v>
@@ -34759,10 +34759,10 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B68" s="144" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>906</v>
@@ -34776,10 +34776,10 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="21" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B69" s="179" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>906</v>
@@ -34793,10 +34793,10 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B70" s="144" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>906</v>
@@ -34810,10 +34810,10 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="21" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B71" s="182" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>906</v>
@@ -34827,10 +34827,10 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="17" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B72" s="181" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>906</v>
@@ -34844,10 +34844,10 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="21" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B73" s="182" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>906</v>
@@ -34861,10 +34861,10 @@
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B74" s="181" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>906</v>
@@ -34878,10 +34878,10 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="21" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B75" s="182" t="s">
         <v>1104</v>
-      </c>
-      <c r="B75" s="182" t="s">
-        <v>1105</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>906</v>
@@ -34895,10 +34895,10 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B76" s="181" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>906</v>
@@ -34912,10 +34912,10 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="21" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B77" s="182" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>906</v>
@@ -34929,10 +34929,10 @@
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="17" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B78" s="181" t="s">
         <v>1108</v>
-      </c>
-      <c r="B78" s="181" t="s">
-        <v>1109</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>906</v>
@@ -34946,10 +34946,10 @@
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="21" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B79" s="179" t="s">
         <v>1110</v>
-      </c>
-      <c r="B79" s="179" t="s">
-        <v>1111</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>906</v>
@@ -34963,10 +34963,10 @@
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="17" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B80" s="184" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>906</v>
@@ -34980,10 +34980,10 @@
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="21" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B81" s="179" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>906</v>
@@ -34997,10 +34997,10 @@
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="17" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B82" s="144" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>906</v>
@@ -35014,10 +35014,10 @@
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="21" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B83" s="182" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>906</v>
@@ -35031,10 +35031,10 @@
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="17" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B84" s="144" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C84" s="28" t="s">
         <v>906</v>
@@ -35048,10 +35048,10 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="21" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B85" s="179" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C85" s="27" t="s">
         <v>906</v>
@@ -35065,10 +35065,10 @@
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="17" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B86" s="144" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C86" s="28" t="s">
         <v>906</v>
@@ -35082,10 +35082,10 @@
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="21" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B87" s="182" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C87" s="27" t="s">
         <v>906</v>
@@ -35099,10 +35099,10 @@
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B88" s="144" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C88" s="28" t="s">
         <v>906</v>
@@ -35116,10 +35116,10 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B89" s="182" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C89" s="27" t="s">
         <v>906</v>
@@ -35133,10 +35133,10 @@
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B90" s="181" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>906</v>
@@ -35150,10 +35150,10 @@
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="84" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B91" s="186" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C91" s="175" t="s">
         <v>906</v>
@@ -35162,7 +35162,7 @@
         <v>11</v>
       </c>
       <c r="E91" s="149" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
   </sheetData>
@@ -35229,7 +35229,7 @@
         <v>990</v>
       </c>
       <c r="B2" s="145" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C2" s="120"/>
       <c r="D2" s="18" t="s">
@@ -35241,10 +35241,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B3" s="143" t="s">
         <v>1125</v>
-      </c>
-      <c r="B3" s="143" t="s">
-        <v>1126</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="13" t="s">
@@ -35256,10 +35256,10 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B4" s="145" t="s">
         <v>1127</v>
-      </c>
-      <c r="B4" s="145" t="s">
-        <v>1128</v>
       </c>
       <c r="C4" s="120"/>
       <c r="D4" s="18" t="s">
@@ -35286,10 +35286,10 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B6" s="145" t="s">
         <v>1129</v>
-      </c>
-      <c r="B6" s="145" t="s">
-        <v>1130</v>
       </c>
       <c r="C6" s="120"/>
       <c r="D6" s="18" t="s">
@@ -35301,7 +35301,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B7" s="143" t="s">
         <v>1356</v>
@@ -35316,7 +35316,7 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B8" s="145" t="s">
         <v>1357</v>
@@ -35331,7 +35331,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B9" s="143" t="s">
         <v>1358</v>
@@ -35346,7 +35346,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B10" s="145" t="s">
         <v>1359</v>
@@ -35361,10 +35361,10 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="21" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B11" s="143" t="s">
         <v>1141</v>
-      </c>
-      <c r="B11" s="143" t="s">
-        <v>1142</v>
       </c>
       <c r="C11" s="120"/>
       <c r="D11" s="13" t="s">
@@ -35376,7 +35376,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="17" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B12" s="145" t="s">
         <v>1360</v>
@@ -35391,10 +35391,10 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B13" s="143" t="s">
         <v>1145</v>
-      </c>
-      <c r="B13" s="143" t="s">
-        <v>1146</v>
       </c>
       <c r="C13" s="120"/>
       <c r="D13" s="13" t="s">
@@ -35406,10 +35406,10 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B14" s="145" t="s">
         <v>1147</v>
-      </c>
-      <c r="B14" s="145" t="s">
-        <v>1148</v>
       </c>
       <c r="C14" s="120"/>
       <c r="D14" s="18" t="s">
@@ -35421,7 +35421,7 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B15" s="143" t="s">
         <v>1361</v>
@@ -35436,10 +35436,10 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B16" s="145" t="s">
         <v>1151</v>
-      </c>
-      <c r="B16" s="145" t="s">
-        <v>1152</v>
       </c>
       <c r="C16" s="120"/>
       <c r="D16" s="18" t="s">
@@ -35451,10 +35451,10 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="21" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B17" s="143" t="s">
         <v>1153</v>
-      </c>
-      <c r="B17" s="143" t="s">
-        <v>1154</v>
       </c>
       <c r="C17" s="120"/>
       <c r="D17" s="13" t="s">
@@ -35466,10 +35466,10 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B18" s="145" t="s">
         <v>1155</v>
-      </c>
-      <c r="B18" s="145" t="s">
-        <v>1156</v>
       </c>
       <c r="C18" s="120"/>
       <c r="D18" s="18" t="s">
@@ -35481,10 +35481,10 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B19" s="143" t="s">
         <v>1037</v>
-      </c>
-      <c r="B19" s="143" t="s">
-        <v>1038</v>
       </c>
       <c r="C19" s="120"/>
       <c r="D19" s="13" t="s">
@@ -35496,10 +35496,10 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B20" s="145" t="s">
         <v>1157</v>
-      </c>
-      <c r="B20" s="145" t="s">
-        <v>1158</v>
       </c>
       <c r="C20" s="120"/>
       <c r="D20" s="18" t="s">
@@ -35511,10 +35511,10 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="21" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B21" s="143" t="s">
         <v>1159</v>
-      </c>
-      <c r="B21" s="143" t="s">
-        <v>1160</v>
       </c>
       <c r="C21" s="120"/>
       <c r="D21" s="13" t="s">
@@ -35526,10 +35526,10 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B22" s="145" t="s">
         <v>1161</v>
-      </c>
-      <c r="B22" s="145" t="s">
-        <v>1162</v>
       </c>
       <c r="C22" s="120"/>
       <c r="D22" s="18" t="s">
@@ -35541,10 +35541,10 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B23" s="143" t="s">
         <v>1163</v>
-      </c>
-      <c r="B23" s="143" t="s">
-        <v>1164</v>
       </c>
       <c r="C23" s="120"/>
       <c r="D23" s="13" t="s">
@@ -35556,10 +35556,10 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B24" s="145" t="s">
         <v>1165</v>
-      </c>
-      <c r="B24" s="145" t="s">
-        <v>1166</v>
       </c>
       <c r="C24" s="120"/>
       <c r="D24" s="18" t="s">
@@ -35571,10 +35571,10 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="21" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B25" s="143" t="s">
         <v>1167</v>
-      </c>
-      <c r="B25" s="143" t="s">
-        <v>1168</v>
       </c>
       <c r="C25" s="120"/>
       <c r="D25" s="13" t="s">
@@ -35586,10 +35586,10 @@
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B26" s="145" t="s">
         <v>1169</v>
-      </c>
-      <c r="B26" s="145" t="s">
-        <v>1170</v>
       </c>
       <c r="C26" s="120"/>
       <c r="D26" s="18" t="s">
@@ -35601,10 +35601,10 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="21" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B27" s="143" t="s">
         <v>1171</v>
-      </c>
-      <c r="B27" s="143" t="s">
-        <v>1172</v>
       </c>
       <c r="C27" s="120"/>
       <c r="D27" s="13" t="s">
@@ -35616,10 +35616,10 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B28" s="145" t="s">
         <v>1173</v>
-      </c>
-      <c r="B28" s="145" t="s">
-        <v>1174</v>
       </c>
       <c r="C28" s="120"/>
       <c r="D28" s="18" t="s">
@@ -35646,10 +35646,10 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="17" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B30" s="145" t="s">
         <v>1175</v>
-      </c>
-      <c r="B30" s="145" t="s">
-        <v>1176</v>
       </c>
       <c r="C30" s="120"/>
       <c r="D30" s="18" t="s">
@@ -35661,10 +35661,10 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="21" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B31" s="143" t="s">
         <v>1177</v>
-      </c>
-      <c r="B31" s="143" t="s">
-        <v>1178</v>
       </c>
       <c r="C31" s="120"/>
       <c r="D31" s="13" t="s">
@@ -35676,10 +35676,10 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B32" s="145" t="s">
         <v>1179</v>
-      </c>
-      <c r="B32" s="145" t="s">
-        <v>1180</v>
       </c>
       <c r="C32" s="120"/>
       <c r="D32" s="18" t="s">
@@ -35691,10 +35691,10 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="21" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B33" s="143" t="s">
         <v>1181</v>
-      </c>
-      <c r="B33" s="143" t="s">
-        <v>1182</v>
       </c>
       <c r="C33" s="120"/>
       <c r="D33" s="13" t="s">
@@ -35706,10 +35706,10 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B34" s="145" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C34" s="120"/>
       <c r="D34" s="18" t="s">
@@ -35721,10 +35721,10 @@
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="21" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B35" s="143" t="s">
         <v>1184</v>
-      </c>
-      <c r="B35" s="143" t="s">
-        <v>1185</v>
       </c>
       <c r="C35" s="120"/>
       <c r="D35" s="13" t="s">
@@ -35736,10 +35736,10 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B36" s="145" t="s">
         <v>1186</v>
-      </c>
-      <c r="B36" s="145" t="s">
-        <v>1187</v>
       </c>
       <c r="C36" s="120"/>
       <c r="D36" s="18" t="s">
@@ -35751,10 +35751,10 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="21" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B37" s="143" t="s">
         <v>1188</v>
-      </c>
-      <c r="B37" s="143" t="s">
-        <v>1189</v>
       </c>
       <c r="C37" s="120"/>
       <c r="D37" s="13" t="s">
@@ -35766,10 +35766,10 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="17" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B38" s="145" t="s">
         <v>1190</v>
-      </c>
-      <c r="B38" s="145" t="s">
-        <v>1191</v>
       </c>
       <c r="C38" s="120"/>
       <c r="D38" s="18" t="s">
@@ -35781,10 +35781,10 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="21" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B39" s="143" t="s">
         <v>1192</v>
-      </c>
-      <c r="B39" s="143" t="s">
-        <v>1193</v>
       </c>
       <c r="C39" s="120"/>
       <c r="D39" s="13" t="s">
@@ -35796,10 +35796,10 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B40" s="145" t="s">
         <v>1194</v>
-      </c>
-      <c r="B40" s="145" t="s">
-        <v>1195</v>
       </c>
       <c r="C40" s="120"/>
       <c r="D40" s="18" t="s">
@@ -35811,10 +35811,10 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="21" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B41" s="143" t="s">
         <v>1196</v>
-      </c>
-      <c r="B41" s="143" t="s">
-        <v>1197</v>
       </c>
       <c r="C41" s="120"/>
       <c r="D41" s="13" t="s">
@@ -35826,10 +35826,10 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B42" s="145" t="s">
         <v>1198</v>
-      </c>
-      <c r="B42" s="145" t="s">
-        <v>1199</v>
       </c>
       <c r="C42" s="120"/>
       <c r="D42" s="18" t="s">
@@ -35871,10 +35871,10 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B45" s="143" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C45" s="120"/>
       <c r="D45" s="13" t="s">
@@ -35886,10 +35886,10 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B46" s="145" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C46" s="120"/>
       <c r="D46" s="18" t="s">
@@ -35901,10 +35901,10 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B47" s="143" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C47" s="120"/>
       <c r="D47" s="13" t="s">
@@ -35916,10 +35916,10 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="17" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B48" s="145" t="s">
         <v>1200</v>
-      </c>
-      <c r="B48" s="145" t="s">
-        <v>1201</v>
       </c>
       <c r="C48" s="120"/>
       <c r="D48" s="18" t="s">
@@ -35931,10 +35931,10 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="21" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B49" s="143" t="s">
         <v>1202</v>
-      </c>
-      <c r="B49" s="143" t="s">
-        <v>1203</v>
       </c>
       <c r="C49" s="120"/>
       <c r="D49" s="13" t="s">
@@ -35946,10 +35946,10 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B50" s="145" t="s">
         <v>1204</v>
-      </c>
-      <c r="B50" s="145" t="s">
-        <v>1205</v>
       </c>
       <c r="C50" s="120"/>
       <c r="D50" s="18" t="s">
@@ -35961,10 +35961,10 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="21" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B51" s="143" t="s">
         <v>1206</v>
-      </c>
-      <c r="B51" s="143" t="s">
-        <v>1207</v>
       </c>
       <c r="C51" s="120"/>
       <c r="D51" s="13" t="s">
@@ -35976,10 +35976,10 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="17" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B52" s="145" t="s">
         <v>1208</v>
-      </c>
-      <c r="B52" s="145" t="s">
-        <v>1209</v>
       </c>
       <c r="C52" s="120"/>
       <c r="D52" s="18" t="s">
@@ -35991,10 +35991,10 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B53" s="143" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C53" s="120"/>
       <c r="D53" s="13" t="s">
@@ -36006,10 +36006,10 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B54" s="145" t="s">
         <v>1211</v>
-      </c>
-      <c r="B54" s="145" t="s">
-        <v>1212</v>
       </c>
       <c r="C54" s="120"/>
       <c r="D54" s="18" t="s">
@@ -36021,10 +36021,10 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="21" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B55" s="143" t="s">
         <v>1213</v>
-      </c>
-      <c r="B55" s="143" t="s">
-        <v>1214</v>
       </c>
       <c r="C55" s="120"/>
       <c r="D55" s="13" t="s">
@@ -36036,10 +36036,10 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B56" s="145" t="s">
         <v>1215</v>
-      </c>
-      <c r="B56" s="145" t="s">
-        <v>1216</v>
       </c>
       <c r="C56" s="188"/>
       <c r="D56" s="18" t="s">
@@ -36051,10 +36051,10 @@
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="21" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B57" s="143" t="s">
         <v>1217</v>
-      </c>
-      <c r="B57" s="143" t="s">
-        <v>1218</v>
       </c>
       <c r="C57" s="188"/>
       <c r="D57" s="13" t="s">
@@ -36066,10 +36066,10 @@
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B58" s="145" t="s">
         <v>1219</v>
-      </c>
-      <c r="B58" s="145" t="s">
-        <v>1220</v>
       </c>
       <c r="C58" s="188"/>
       <c r="D58" s="18" t="s">
@@ -36081,10 +36081,10 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="21" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B59" s="143" t="s">
         <v>1221</v>
-      </c>
-      <c r="B59" s="143" t="s">
-        <v>1222</v>
       </c>
       <c r="C59" s="188"/>
       <c r="D59" s="13" t="s">
@@ -36096,10 +36096,10 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="17" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B60" s="145" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C60" s="188"/>
       <c r="D60" s="18" t="s">
@@ -36111,10 +36111,10 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="21" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B61" s="143" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C61" s="188"/>
       <c r="D61" s="13" t="s">
@@ -36126,10 +36126,10 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B62" s="145" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C62" s="188"/>
       <c r="D62" s="18" t="s">
@@ -36141,10 +36141,10 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="21" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B63" s="143" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C63" s="188"/>
       <c r="D63" s="13" t="s">
@@ -36156,7 +36156,7 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B64" s="145" t="s">
         <v>595</v>
@@ -36171,10 +36171,10 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B65" s="143" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C65" s="188"/>
       <c r="D65" s="13" t="s">
@@ -36186,10 +36186,10 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B66" s="145" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C66" s="188"/>
       <c r="D66" s="18" t="s">
@@ -36201,10 +36201,10 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="21" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B67" s="143" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C67" s="188"/>
       <c r="D67" s="13" t="s">
@@ -36216,10 +36216,10 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B68" s="145" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C68" s="188"/>
       <c r="D68" s="18" t="s">
@@ -36231,10 +36231,10 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B69" s="143" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C69" s="188"/>
       <c r="D69" s="13" t="s">
@@ -36246,10 +36246,10 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B70" s="145" t="s">
         <v>1184</v>
-      </c>
-      <c r="B70" s="145" t="s">
-        <v>1185</v>
       </c>
       <c r="C70" s="188"/>
       <c r="D70" s="18" t="s">
@@ -36261,10 +36261,10 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="21" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B71" s="143" t="s">
         <v>1186</v>
-      </c>
-      <c r="B71" s="143" t="s">
-        <v>1187</v>
       </c>
       <c r="C71" s="188"/>
       <c r="D71" s="185" t="s">
@@ -36276,10 +36276,10 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="17" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B72" s="145" t="s">
         <v>1188</v>
-      </c>
-      <c r="B72" s="145" t="s">
-        <v>1189</v>
       </c>
       <c r="C72" s="188"/>
       <c r="D72" s="169" t="s">
@@ -36291,10 +36291,10 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="21" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B73" s="143" t="s">
         <v>1190</v>
-      </c>
-      <c r="B73" s="143" t="s">
-        <v>1191</v>
       </c>
       <c r="C73" s="188"/>
       <c r="D73" s="185" t="s">
@@ -36306,10 +36306,10 @@
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B74" s="145" t="s">
         <v>1192</v>
-      </c>
-      <c r="B74" s="145" t="s">
-        <v>1193</v>
       </c>
       <c r="C74" s="188"/>
       <c r="D74" s="169" t="s">
@@ -36321,10 +36321,10 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="21" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B75" s="143" t="s">
         <v>1194</v>
-      </c>
-      <c r="B75" s="143" t="s">
-        <v>1195</v>
       </c>
       <c r="C75" s="188"/>
       <c r="D75" s="185" t="s">
@@ -36336,10 +36336,10 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="17" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B76" s="145" t="s">
         <v>1196</v>
-      </c>
-      <c r="B76" s="145" t="s">
-        <v>1197</v>
       </c>
       <c r="C76" s="188"/>
       <c r="D76" s="169" t="s">
@@ -36351,10 +36351,10 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="21" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B77" s="143" t="s">
         <v>1198</v>
-      </c>
-      <c r="B77" s="143" t="s">
-        <v>1199</v>
       </c>
       <c r="C77" s="188"/>
       <c r="D77" s="185" t="s">
@@ -36396,10 +36396,10 @@
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="17" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B80" s="145" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C80" s="188"/>
       <c r="D80" s="169" t="s">
@@ -36411,10 +36411,10 @@
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="21" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B81" s="143" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C81" s="188"/>
       <c r="D81" s="185" t="s">
@@ -36426,10 +36426,10 @@
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="17" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B82" s="145" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C82" s="188"/>
       <c r="D82" s="169" t="s">
@@ -36441,10 +36441,10 @@
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B83" s="143" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C83" s="188"/>
       <c r="D83" s="185" t="s">
@@ -36456,10 +36456,10 @@
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="17" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B84" s="145" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C84" s="188"/>
       <c r="D84" s="169" t="s">
@@ -36471,10 +36471,10 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="21" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B85" s="143" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C85" s="188"/>
       <c r="D85" s="185" t="s">
@@ -36486,10 +36486,10 @@
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="17" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B86" s="145" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C86" s="188"/>
       <c r="D86" s="169" t="s">
@@ -36501,10 +36501,10 @@
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="21" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B87" s="143" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C87" s="188"/>
       <c r="D87" s="185" t="s">
@@ -36516,10 +36516,10 @@
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B88" s="145" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C88" s="188"/>
       <c r="D88" s="169" t="s">
@@ -36531,10 +36531,10 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B89" s="143" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C89" s="188"/>
       <c r="D89" s="185" t="s">
@@ -36546,10 +36546,10 @@
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B90" s="145" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C90" s="188"/>
       <c r="D90" s="169" t="s">
@@ -36561,10 +36561,10 @@
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="21" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B91" s="143" t="s">
         <v>1215</v>
-      </c>
-      <c r="B91" s="143" t="s">
-        <v>1216</v>
       </c>
       <c r="C91" s="188"/>
       <c r="D91" s="185" t="s">
@@ -36576,10 +36576,10 @@
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B92" s="145" t="s">
         <v>1217</v>
-      </c>
-      <c r="B92" s="145" t="s">
-        <v>1218</v>
       </c>
       <c r="C92" s="188"/>
       <c r="D92" s="169" t="s">
@@ -36591,10 +36591,10 @@
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="21" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B93" s="143" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C93" s="188"/>
       <c r="D93" s="185" t="s">
@@ -36606,10 +36606,10 @@
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="17" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B94" s="145" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C94" s="188"/>
       <c r="D94" s="169" t="s">
@@ -36621,10 +36621,10 @@
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="21" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B95" s="143" t="s">
         <v>1246</v>
-      </c>
-      <c r="B95" s="143" t="s">
-        <v>1247</v>
       </c>
       <c r="C95" s="188"/>
       <c r="D95" s="185" t="s">
@@ -36636,10 +36636,10 @@
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="17" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B96" s="145" t="s">
         <v>1248</v>
-      </c>
-      <c r="B96" s="145" t="s">
-        <v>1249</v>
       </c>
       <c r="C96" s="188"/>
       <c r="D96" s="169" t="s">
@@ -36651,10 +36651,10 @@
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B97" s="143" t="s">
         <v>1250</v>
-      </c>
-      <c r="B97" s="143" t="s">
-        <v>1251</v>
       </c>
       <c r="C97" s="188"/>
       <c r="D97" s="185" t="s">
@@ -36666,10 +36666,10 @@
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="107" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B98" s="189" t="s">
         <v>1252</v>
-      </c>
-      <c r="B98" s="189" t="s">
-        <v>1253</v>
       </c>
       <c r="C98" s="190"/>
       <c r="D98" s="191" t="s">

--- a/translations/parent_text_crisis_palestine/excel files/Palestine strings for translation.xlsx
+++ b/translations/parent_text_crisis_palestine/excel files/Palestine strings for translation.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6808" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6808" uniqueCount="1378">
   <si>
     <t>English</t>
   </si>
@@ -2430,7 +2430,7 @@
 نصائح اليوم بتشاركك طرق عشان تساعدك تحافظ على هدوئك و تخلّي طفلك بعلاقة قريبة منّك خلال السفر.</t>
   </si>
   <si>
-    <t>🫂 Many parents are having quiet talks with their children about staying safe. Today’s tips explain how to keep your child safe from harassment in a calm, age-appropriate way.</t>
+    <t>💡 Many parents are having quiet talks with their children about staying safe. Today’s tips explain how to keep your child safe from harassment in a calm, age-appropriate way.</t>
   </si>
   <si>
     <t>💡 كتير من الأهالي عم يحكوا مع أطفالهم على إنفراد عن الحذر و الإبتعاد عن الخطر. نصائح اليوم بعرّفوك كيف توعّي طفلك عن خطر التحرّش بطريقة هادية و مناسبة لعمره عشان تحميه و يضلّ آمن.</t>
@@ -4291,6 +4291,9 @@
     <t>💛 أفعال بسيطة بتساعد تخلّي طفلك قريب و آمن في الأوقات الصعبة و اللي فيها تحدّي.
 نصائح اليوم بتشاركك طرق عشان تساعدك تحافظ على هدوئك و تخلّي طفلك بعلاقة قريبة منّك خلال السفر.
 بتحب تُحصُل عليهم؟</t>
+  </si>
+  <si>
+    <t>🫂 Many parents are having quiet talks with their children about staying safe. Today’s tips explain how to keep your child safe from harassment in a calm, age-appropriate way.</t>
   </si>
   <si>
     <t>🫂 كتير من الأهالي عم يحكوا مع أطفالهم على إنفراد عن الحذر و الإبتعاد عن الخطر. نصائح اليوم بعرّفوك كيف توعّي طفلك عن خطر التحرّش بطريقة هادية و مناسبة لعمره عشان تحميه و يضلّ آمن. 
@@ -31567,10 +31570,10 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>766</v>
+        <v>1357</v>
       </c>
       <c r="B89" s="125" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>10</v>
@@ -31587,7 +31590,7 @@
         <v>768</v>
       </c>
       <c r="B90" s="168" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>10</v>
@@ -31604,7 +31607,7 @@
         <v>770</v>
       </c>
       <c r="B91" s="125" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>10</v>
@@ -32029,7 +32032,7 @@
         <v>820</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>10</v>
@@ -33904,7 +33907,7 @@
         <v>992</v>
       </c>
       <c r="B3" s="184" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>10</v>
@@ -34040,7 +34043,7 @@
         <v>1004</v>
       </c>
       <c r="B11" s="184" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>10</v>
@@ -34091,7 +34094,7 @@
         <v>1010</v>
       </c>
       <c r="B14" s="147" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>10</v>
@@ -34122,10 +34125,10 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B16" s="147" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -34159,7 +34162,7 @@
         <v>1018</v>
       </c>
       <c r="B18" s="147" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
@@ -34244,7 +34247,7 @@
         <v>1028</v>
       </c>
       <c r="B23" s="184" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>10</v>
@@ -34258,10 +34261,10 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="17" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B24" s="147" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>10</v>
@@ -34295,7 +34298,7 @@
         <v>1034</v>
       </c>
       <c r="B26" s="147" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>10</v>
@@ -35551,7 +35554,7 @@
         <v>1132</v>
       </c>
       <c r="B7" s="146" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C7" s="123"/>
       <c r="D7" s="13" t="s">
@@ -35566,7 +35569,7 @@
         <v>1134</v>
       </c>
       <c r="B8" s="148" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C8" s="123"/>
       <c r="D8" s="18" t="s">
@@ -35581,7 +35584,7 @@
         <v>1136</v>
       </c>
       <c r="B9" s="146" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C9" s="123"/>
       <c r="D9" s="13" t="s">
@@ -35596,7 +35599,7 @@
         <v>1139</v>
       </c>
       <c r="B10" s="148" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C10" s="123"/>
       <c r="D10" s="18" t="s">
@@ -35626,7 +35629,7 @@
         <v>1144</v>
       </c>
       <c r="B12" s="148" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="18" t="s">
@@ -35671,7 +35674,7 @@
         <v>1150</v>
       </c>
       <c r="B15" s="146" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C15" s="123"/>
       <c r="D15" s="13" t="s">
